--- a/data/datasets/re-ribo-datasets.xlsx
+++ b/data/datasets/re-ribo-datasets.xlsx
@@ -17,21 +17,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="266">
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>SRP</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>Adapter provided?</t>
+  </si>
   <si>
     <t>Wang et al. (2018)</t>
   </si>
   <si>
-    <t>Publication</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062129</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>SRP</t>
+    <t>Guo et al. (2010)</t>
   </si>
   <si>
     <t>SRP062129</t>
@@ -40,27 +55,12 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/29950183</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>PMID</t>
-  </si>
-  <si>
-    <t>Tissue</t>
-  </si>
-  <si>
-    <t>Adapter provided?</t>
-  </si>
-  <si>
-    <t>Guo et al. (2010)</t>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP002605</t>
   </si>
   <si>
     <t>lymphoblastoid</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP002605</t>
-  </si>
-  <si>
     <t>SRP002605</t>
   </si>
   <si>
@@ -235,6 +235,45 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP031501</t>
   </si>
   <si>
+    <t>Lareau et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP043036</t>
+  </si>
+  <si>
+    <t>SRP043036</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24842990</t>
+  </si>
+  <si>
+    <t>Downloade</t>
+  </si>
+  <si>
+    <t>Sen et al. (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055707 </t>
+  </si>
+  <si>
+    <t>SRP055707</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26122911</t>
+  </si>
+  <si>
+    <t>Nedialkova et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
+  </si>
+  <si>
+    <t>SRP056647</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26052047</t>
+  </si>
+  <si>
     <t>SRP031501</t>
   </si>
   <si>
@@ -292,7 +331,13 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP042937</t>
   </si>
   <si>
-    <t>Lareau et al. (2014)</t>
+    <t>Mohammad et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
+  </si>
+  <si>
+    <t>SRP063562</t>
   </si>
   <si>
     <t>SRP042937</t>
@@ -313,12 +358,12 @@
     <t>SRP045214</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25989971</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP043036</t>
-  </si>
-  <si>
     <t>Gao et al. (2014)</t>
   </si>
   <si>
@@ -328,28 +373,64 @@
     <t>SRP049168</t>
   </si>
   <si>
-    <t>SRP043036</t>
-  </si>
-  <si>
     <t>kidney</t>
   </si>
   <si>
+    <t>Cenik et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055009</t>
+  </si>
+  <si>
+    <t>SRP055009</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26297486</t>
+  </si>
+  <si>
+    <t>Ulirsch et al. (2018)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP092068</t>
+  </si>
+  <si>
+    <t>SRP092068</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29551269</t>
+  </si>
+  <si>
     <t>Neutrophils from bone marrow</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/24842990</t>
-  </si>
-  <si>
-    <t>Downloade</t>
-  </si>
-  <si>
-    <t>Sen et al. (2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055707 </t>
-  </si>
-  <si>
-    <t>SRP055707</t>
+    <t>CD 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blair et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP109126</t>
+  </si>
+  <si>
+    <t>SRP109126</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29141229</t>
+  </si>
+  <si>
+    <t>ESC/NPC</t>
+  </si>
+  <si>
+    <t>Battle et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
+  </si>
+  <si>
+    <t>SRP047476</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
   </si>
   <si>
     <t>Ingolia et al. (2011)</t>
@@ -358,12 +439,6 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
   </si>
   <si>
-    <t>Cenik et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055009</t>
-  </si>
-  <si>
     <t>SRP007567</t>
   </si>
   <si>
@@ -379,27 +454,9 @@
     <t>Thoreen et al. (2012)</t>
   </si>
   <si>
-    <t>SRP055009</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26297486</t>
-  </si>
-  <si>
-    <t>Ulirsch et al. (2018)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP092068</t>
-  </si>
-  <si>
-    <t>SRP092068</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP011987</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29551269</t>
-  </si>
-  <si>
     <t>SRP011987</t>
   </si>
   <si>
@@ -409,45 +466,18 @@
     <t>embryonic fibroblast</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26122911</t>
-  </si>
-  <si>
-    <t>Nedialkova et al. (2015)</t>
-  </si>
-  <si>
-    <t>CD 34</t>
-  </si>
-  <si>
     <t>Hurt et al. (2013)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Blair et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP109126</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP016625</t>
   </si>
   <si>
-    <t>SRP109126</t>
-  </si>
-  <si>
     <t>SRP016625</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29141229</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/23766421</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
-  </si>
-  <si>
-    <t>ESC/NPC</t>
-  </si>
-  <si>
     <t>ESC</t>
   </si>
   <si>
@@ -463,9 +493,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/23696641</t>
   </si>
   <si>
-    <t>SRP056647</t>
-  </si>
-  <si>
     <t>liver</t>
   </si>
   <si>
@@ -475,33 +502,18 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP030014</t>
   </si>
   <si>
-    <t>Battle et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
-  </si>
-  <si>
     <t>SRP030014</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26052047</t>
-  </si>
-  <si>
     <t>Started</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25063675</t>
   </si>
   <si>
-    <t>SRP047476</t>
-  </si>
-  <si>
     <t>testes</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
-  </si>
-  <si>
     <t>normal/tumor brain</t>
   </si>
   <si>
@@ -640,6 +652,9 @@
     <t>SRP064972</t>
   </si>
   <si>
+    <t>Aspden et al (2014)</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26638175</t>
   </si>
   <si>
@@ -664,27 +679,48 @@
     <t>Hornstein et al. (2016)</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045475</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP070655</t>
   </si>
   <si>
+    <t>SRP045475</t>
+  </si>
+  <si>
     <t>SRP070655</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25144939</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/27380875</t>
   </si>
   <si>
     <t>brain</t>
   </si>
   <si>
+    <t>Chen et al (2017)</t>
+  </si>
+  <si>
     <t>CasteloSzekely et al. (2017)</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP108999</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP074765</t>
   </si>
   <si>
+    <t>SRP108999</t>
+  </si>
+  <si>
     <t>SRP074765</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29194454</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/28622766</t>
   </si>
   <si>
@@ -700,9 +736,15 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/27638886</t>
   </si>
   <si>
+    <t>Kronja et al (2014)</t>
+  </si>
+  <si>
     <t>Sendoel et al. (2017)</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP033366</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076538</t>
   </si>
   <si>
@@ -721,18 +763,30 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP077522</t>
   </si>
   <si>
+    <t>SRP033366</t>
+  </si>
+  <si>
     <t>SRP077522</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/27899360</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24882012</t>
+  </si>
+  <si>
     <t>E14.5 mouse fetal livers</t>
   </si>
   <si>
+    <t>Dunn et al. (2013)</t>
+  </si>
+  <si>
     <t>Fradejas-Villar et al. (2016)</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP028243</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP078005</t>
   </si>
   <si>
@@ -742,6 +796,12 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/27956496</t>
   </si>
   <si>
+    <t>SRP028243</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24302569</t>
+  </si>
+  <si>
     <t>Reid et al. (2017)</t>
   </si>
   <si>
@@ -755,66 +815,6 @@
   </si>
   <si>
     <t>fat tissues</t>
-  </si>
-  <si>
-    <t>Mohammad et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
-  </si>
-  <si>
-    <t>SRP063562</t>
-  </si>
-  <si>
-    <t>Aspden et al (2014)</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045475</t>
-  </si>
-  <si>
-    <t>SRP045475</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25144939</t>
-  </si>
-  <si>
-    <t>Chen et al (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP108999</t>
-  </si>
-  <si>
-    <t>SRP108999</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29194454</t>
-  </si>
-  <si>
-    <t>Kronja et al (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP033366</t>
-  </si>
-  <si>
-    <t>SRP033366</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/24882012</t>
-  </si>
-  <si>
-    <t>Dunn et al. (2013)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP028243</t>
-  </si>
-  <si>
-    <t>SRP028243</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/24302569</t>
   </si>
 </sst>
 </file>
@@ -827,14 +827,9 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -842,6 +837,11 @@
       <color rgb="FF1155CC"/>
       <name val="Verdana"/>
     </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
     <font>
       <u/>
       <sz val="9.0"/>
@@ -849,16 +849,16 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <sz val="8.0"/>
       <color rgb="FF575757"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF1155CC"/>
@@ -905,6 +905,46 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF057279"/>
@@ -917,20 +957,45 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF057279"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF642A8F"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF057279"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
     </font>
     <font>
       <u/>
@@ -940,70 +1005,16 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <sz val="9.0"/>
       <color rgb="FF00948F"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF057279"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF777777"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Sans-serif"/>
     </font>
     <font>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -1018,17 +1029,6 @@
     </font>
     <font>
       <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF00948F"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -1080,181 +1080,181 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1311,40 +1311,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>2010.0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>14</v>
@@ -1360,10 +1360,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
         <v>2010.0</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1381,7 +1381,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="16">
@@ -1405,7 +1405,7 @@
       <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2011.0</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -1426,7 +1426,7 @@
       <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>2012.0</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1446,10 +1446,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>2012.0</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1469,10 +1469,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>2012.0</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1490,10 +1490,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>2012.0</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1511,10 +1511,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>2012.0</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -1532,10 +1532,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>2013.0</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -1553,10 +1553,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>2013.0</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1616,7 +1616,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="16">
@@ -1626,243 +1626,243 @@
         <v>71</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B16" s="13">
         <v>2013.0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="23" t="s">
-        <v>78</v>
+      <c r="F16" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="G16" s="21"/>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="s">
-        <v>79</v>
+      <c r="A17" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="B17" s="16">
         <v>2014.0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="12" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B18" s="16">
         <v>2014.0</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>85</v>
+      <c r="C18" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="17" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="26" t="s">
-        <v>89</v>
+      <c r="A19" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="B19" s="16">
         <v>2014.0</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>90</v>
+      <c r="C19" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="22" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="26" t="s">
-        <v>95</v>
+      <c r="A20" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="B20" s="16">
         <v>2014.0</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="22" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>100</v>
+      <c r="A21" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B21" s="16">
         <v>2014.0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="36" t="s">
-        <v>104</v>
+      <c r="G21" s="39" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B22" s="16">
         <v>2015.0</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>114</v>
+      <c r="C22" s="41" t="s">
+        <v>120</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="26">
+      <c r="A23" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="34">
         <v>2018.0</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="43" t="s">
         <v>126</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B24" s="13">
         <v>2017.0</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4">
         <v>2018.0</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="A26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="4">
         <v>2014.0</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
+      <c r="C26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
-      <c r="F27" s="46"/>
+      <c r="F27" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1936,27 +1936,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
         <v>2018.0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C1"/>
-    <hyperlink r:id="rId2" ref="D1"/>
-    <hyperlink r:id="rId3" ref="F1"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink r:id="rId3" ref="F2"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
@@ -1976,27 +2002,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
         <v>2018.0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C1"/>
-    <hyperlink r:id="rId2" ref="D1"/>
-    <hyperlink r:id="rId3" ref="F1"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink r:id="rId3" ref="F2"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
@@ -2018,47 +2070,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>2010.0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>105</v>
+      <c r="G2" s="44" t="s">
+        <v>127</v>
       </c>
       <c r="I2" t="str">
         <f>linkURL(E3)</f>
@@ -2066,49 +2118,49 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="3">
         <v>2011.0</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>118</v>
+      <c r="C3" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="1">
         <v>2012.0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>129</v>
+      <c r="C4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="I4" t="str">
         <f>linkURL(F4)</f>
@@ -2116,544 +2168,544 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2012.0</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2013.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2013.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="39" t="s">
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2015.0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2016.0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2015.0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2016.0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="F17" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="1">
         <v>2015.0</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="C19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2015.0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2015.0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2015.0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="1">
         <v>2016.0</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2015.0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="C23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2017.0</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="1">
         <v>2016.0</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="C25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="1">
         <v>2017.0</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2015.0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2015.0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2015.0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2015.0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="C26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2017.0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="1">
         <v>2016.0</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="C28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="1">
         <v>2017.0</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2016.0</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2017.0</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2017.0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2016.0</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2017.0</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>245</v>
+      <c r="C29" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2732,86 +2784,86 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="29">
+      <c r="A2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="23">
         <v>2014.0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>107</v>
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4">
         <v>2015.0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="35" t="s">
-        <v>130</v>
+      <c r="C3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="42">
+      <c r="A4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="28">
         <v>2015.0</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="35" t="s">
-        <v>155</v>
+      <c r="C4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2843,47 +2895,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="55">
+      <c r="A2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="35">
         <v>2016.0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="58" t="s">
-        <v>250</v>
+      <c r="C2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="48" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2911,96 +2963,96 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="B2" s="57">
         <v>2014.0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2017.0</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2014.0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="35" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2017.0</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="B5" s="4">
+        <v>2013.0</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F5" s="48" t="s">
         <v>260</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2013.0</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/datasets/re-ribo-datasets.xlsx
+++ b/data/datasets/re-ribo-datasets.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="266">
   <si>
     <t>Publication</t>
   </si>
@@ -49,27 +49,27 @@
     <t>Guo et al. (2010)</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP002605</t>
+  </si>
+  <si>
+    <t>SRP002605</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20703300</t>
+  </si>
+  <si>
     <t>SRP062129</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/29950183</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP002605</t>
-  </si>
-  <si>
     <t>lymphoblastoid</t>
   </si>
   <si>
-    <t>SRP002605</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/20703300</t>
-  </si>
-  <si>
     <t>HeLa</t>
   </si>
   <si>
@@ -235,15 +235,69 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP031501</t>
   </si>
   <si>
+    <t>SRP031501</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25122893</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Guo et al. (2013)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP031849</t>
+  </si>
+  <si>
+    <t>SRP031849</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25070500</t>
+  </si>
+  <si>
+    <t>Andreev et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP038695</t>
+  </si>
+  <si>
+    <t>SRP038695</t>
+  </si>
+  <si>
     <t>Lareau et al. (2014)</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25621764</t>
+  </si>
+  <si>
+    <t>HEK293T</t>
+  </si>
+  <si>
+    <t>Wein et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP040550</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP043036</t>
   </si>
   <si>
     <t>SRP043036</t>
   </si>
   <si>
+    <t>SRP040550</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25108525</t>
+  </si>
+  <si>
+    <t>Skeletal muscle</t>
+  </si>
+  <si>
+    <t>Menschaert et al. (2015)</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/24842990</t>
   </si>
   <si>
@@ -265,6 +319,9 @@
     <t>Nedialkova et al. (2015)</t>
   </si>
   <si>
+    <t>Neutrophils from bone marrow</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
   </si>
   <si>
@@ -274,547 +331,490 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26052047</t>
   </si>
   <si>
-    <t>SRP031501</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25122893</t>
-  </si>
-  <si>
-    <t>Brain</t>
-  </si>
-  <si>
-    <t>Guo et al. (2013)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP031849</t>
-  </si>
-  <si>
-    <t>SRP031849</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25070500</t>
-  </si>
-  <si>
-    <t>Andreev et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP038695</t>
-  </si>
-  <si>
-    <t>SRP038695</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25621764</t>
-  </si>
-  <si>
-    <t>HEK293T</t>
-  </si>
-  <si>
-    <t>Wein et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP040550</t>
-  </si>
-  <si>
-    <t>SRP040550</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25108525</t>
-  </si>
-  <si>
-    <t>Skeletal muscle</t>
-  </si>
-  <si>
-    <t>Menschaert et al. (2015)</t>
+    <t>Ingolia et al. (2011)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP042937</t>
   </si>
   <si>
+    <t>SRP007567</t>
+  </si>
+  <si>
+    <t>Downloaded</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22056041</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>Thoreen et al. (2012)</t>
+  </si>
+  <si>
+    <t>SRP042937</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25510491</t>
+  </si>
+  <si>
+    <t>HCT116</t>
+  </si>
+  <si>
+    <t>Rutkowski et al.</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045214</t>
+  </si>
+  <si>
+    <t>SRP045214</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25989971</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP011987</t>
+  </si>
+  <si>
+    <t>SRP011987</t>
+  </si>
+  <si>
+    <t>Gao et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP049168</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22552098</t>
+  </si>
+  <si>
+    <t>SRP049168</t>
+  </si>
+  <si>
+    <t>embryonic fibroblast</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>Cenik et al. (2015)</t>
+  </si>
+  <si>
+    <t>Hurt et al. (2013)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP016625</t>
+  </si>
+  <si>
+    <t>SRP016625</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055009</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23766421</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Howard et al. (2013)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP021058</t>
+  </si>
+  <si>
+    <t>SRP021058</t>
+  </si>
+  <si>
+    <t>SRP055009</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26297486</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23696641</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>Castaneda et al. (2014)</t>
+  </si>
+  <si>
+    <t>Ulirsch et al. (2018)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP030014</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP092068</t>
+  </si>
+  <si>
+    <t>SRP030014</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>SRP092068</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25063675</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29551269</t>
+  </si>
+  <si>
+    <t>testes</t>
+  </si>
+  <si>
+    <t>CD 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blair et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP109126</t>
+  </si>
+  <si>
+    <t>SRP109126</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29141229</t>
+  </si>
+  <si>
+    <t>ESC/NPC</t>
+  </si>
+  <si>
+    <t>Battle et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
+  </si>
+  <si>
+    <t>SRP047476</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
+  </si>
+  <si>
+    <t>normal/tumor brain</t>
+  </si>
+  <si>
+    <t>Reid et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP034858</t>
+  </si>
+  <si>
+    <t>SRP034858</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25215492</t>
+  </si>
+  <si>
+    <t>Ingolia et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045257</t>
+  </si>
+  <si>
+    <t>SRP045257</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25159147</t>
+  </si>
+  <si>
+    <t>Eichhorn et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045501</t>
+  </si>
+  <si>
+    <t>SRP045501</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25263593</t>
+  </si>
+  <si>
+    <t>3T3/HEK293</t>
+  </si>
+  <si>
+    <t>Janich et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056576</t>
+  </si>
+  <si>
+    <t>SRP056576</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26486724</t>
+  </si>
+  <si>
+    <t>Reid et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP059390</t>
+  </si>
+  <si>
+    <t>SRP059390</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27161320</t>
+  </si>
+  <si>
+    <t>Cho et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062407</t>
+  </si>
+  <si>
+    <t>SRP062407</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26430118</t>
+  </si>
+  <si>
+    <t>Hippocampal tissue</t>
+  </si>
+  <si>
+    <t>Blanco et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062409</t>
+  </si>
+  <si>
+    <t>SRP062409</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27306184</t>
+  </si>
+  <si>
+    <t>skin squamous tumours</t>
+  </si>
+  <si>
+    <t>Neri et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063525</t>
+  </si>
+  <si>
+    <t>SRP063525</t>
+  </si>
+  <si>
+    <t>You et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064129</t>
+  </si>
+  <si>
+    <t>SRP064129</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26443847</t>
+  </si>
+  <si>
+    <t>Atger et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064304</t>
+  </si>
+  <si>
+    <t>SRP064304</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26554015</t>
+  </si>
+  <si>
+    <t>Fields et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064972</t>
+  </si>
+  <si>
+    <t>SRP064972</t>
+  </si>
+  <si>
     <t>Mohammad et al. (2016)</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26638175</t>
+  </si>
+  <si>
+    <t>Bone marrow-derived dendritic cells</t>
+  </si>
+  <si>
+    <t>Laguesse et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP065804</t>
+  </si>
+  <si>
+    <t>SRP065804</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26651292</t>
+  </si>
+  <si>
+    <t>E14.5 forebrain</t>
+  </si>
+  <si>
+    <t>Hornstein et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP070655</t>
+  </si>
+  <si>
+    <t>SRP070655</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27380875</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
     <t>SRP063562</t>
   </si>
   <si>
-    <t>SRP042937</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25510491</t>
-  </si>
-  <si>
-    <t>HCT116</t>
-  </si>
-  <si>
-    <t>Rutkowski et al.</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045214</t>
-  </si>
-  <si>
-    <t>SRP045214</t>
+    <t>CasteloSzekely et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP074765</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25989971</t>
-  </si>
-  <si>
-    <t>Gao et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP049168</t>
-  </si>
-  <si>
-    <t>SRP049168</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>Cenik et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055009</t>
-  </si>
-  <si>
-    <t>SRP055009</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26297486</t>
-  </si>
-  <si>
-    <t>Ulirsch et al. (2018)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP092068</t>
-  </si>
-  <si>
-    <t>SRP092068</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29551269</t>
-  </si>
-  <si>
-    <t>Neutrophils from bone marrow</t>
-  </si>
-  <si>
-    <t>CD 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blair et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP109126</t>
-  </si>
-  <si>
-    <t>SRP109126</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29141229</t>
-  </si>
-  <si>
-    <t>ESC/NPC</t>
-  </si>
-  <si>
-    <t>Battle et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
-  </si>
-  <si>
-    <t>SRP047476</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
-  </si>
-  <si>
-    <t>Ingolia et al. (2011)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
-  </si>
-  <si>
-    <t>SRP007567</t>
-  </si>
-  <si>
-    <t>Downloaded</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/22056041</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>Thoreen et al. (2012)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP011987</t>
-  </si>
-  <si>
-    <t>SRP011987</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/22552098</t>
-  </si>
-  <si>
-    <t>embryonic fibroblast</t>
-  </si>
-  <si>
-    <t>Hurt et al. (2013)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP016625</t>
-  </si>
-  <si>
-    <t>SRP016625</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/23766421</t>
-  </si>
-  <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>Howard et al. (2013)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP021058</t>
-  </si>
-  <si>
-    <t>SRP021058</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/23696641</t>
-  </si>
-  <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>Castaneda et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP030014</t>
-  </si>
-  <si>
-    <t>SRP030014</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25063675</t>
-  </si>
-  <si>
-    <t>testes</t>
-  </si>
-  <si>
-    <t>normal/tumor brain</t>
-  </si>
-  <si>
-    <t>Reid et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP034858</t>
-  </si>
-  <si>
-    <t>SRP034858</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25215492</t>
-  </si>
-  <si>
-    <t>Ingolia et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045257</t>
-  </si>
-  <si>
-    <t>SRP045257</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25159147</t>
-  </si>
-  <si>
-    <t>Eichhorn et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045501</t>
-  </si>
-  <si>
-    <t>SRP045501</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25263593</t>
-  </si>
-  <si>
-    <t>3T3/HEK293</t>
-  </si>
-  <si>
-    <t>Janich et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056576</t>
-  </si>
-  <si>
-    <t>SRP056576</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26486724</t>
-  </si>
-  <si>
-    <t>Reid et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP059390</t>
-  </si>
-  <si>
-    <t>SRP059390</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27161320</t>
-  </si>
-  <si>
-    <t>Cho et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062407</t>
-  </si>
-  <si>
-    <t>SRP062407</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26430118</t>
-  </si>
-  <si>
-    <t>Hippocampal tissue</t>
-  </si>
-  <si>
-    <t>Blanco et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062409</t>
-  </si>
-  <si>
-    <t>SRP062409</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27306184</t>
-  </si>
-  <si>
-    <t>skin squamous tumours</t>
-  </si>
-  <si>
-    <t>Neri et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063525</t>
-  </si>
-  <si>
-    <t>SRP063525</t>
-  </si>
-  <si>
-    <t>You et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064129</t>
-  </si>
-  <si>
-    <t>SRP064129</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26443847</t>
-  </si>
-  <si>
-    <t>Atger et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064304</t>
-  </si>
-  <si>
-    <t>SRP064304</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26554015</t>
-  </si>
-  <si>
-    <t>Fields et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064972</t>
-  </si>
-  <si>
-    <t>SRP064972</t>
+    <t>SRP074765</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28622766</t>
+  </si>
+  <si>
+    <t>Gerashchenko et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076093</t>
+  </si>
+  <si>
+    <t>SRP076093</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27638886</t>
+  </si>
+  <si>
+    <t>Sendoel et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076538</t>
+  </si>
+  <si>
+    <t>SRP076538</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28077873</t>
+  </si>
+  <si>
+    <t>back skin</t>
+  </si>
+  <si>
+    <t>AlvarezDominguez  et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP077522</t>
+  </si>
+  <si>
+    <t>SRP077522</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27899360</t>
+  </si>
+  <si>
+    <t>E14.5 mouse fetal livers</t>
+  </si>
+  <si>
+    <t>Fradejas-Villar et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP078005</t>
+  </si>
+  <si>
+    <t>SRP078005</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27956496</t>
+  </si>
+  <si>
+    <t>Reid et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP091987</t>
+  </si>
+  <si>
+    <t>SRP091987</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28720757</t>
   </si>
   <si>
     <t>Aspden et al (2014)</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26638175</t>
-  </si>
-  <si>
-    <t>Bone marrow-derived dendritic cells</t>
-  </si>
-  <si>
-    <t>Laguesse et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP065804</t>
-  </si>
-  <si>
-    <t>SRP065804</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26651292</t>
-  </si>
-  <si>
-    <t>E14.5 forebrain</t>
-  </si>
-  <si>
-    <t>Hornstein et al. (2016)</t>
+    <t>fat tissues</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045475</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP070655</t>
-  </si>
-  <si>
     <t>SRP045475</t>
   </si>
   <si>
-    <t>SRP070655</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25144939</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27380875</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
     <t>Chen et al (2017)</t>
   </si>
   <si>
-    <t>CasteloSzekely et al. (2017)</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP108999</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP074765</t>
-  </si>
-  <si>
     <t>SRP108999</t>
   </si>
   <si>
-    <t>SRP074765</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/29194454</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/28622766</t>
-  </si>
-  <si>
-    <t>Gerashchenko et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076093</t>
-  </si>
-  <si>
-    <t>SRP076093</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27638886</t>
-  </si>
-  <si>
     <t>Kronja et al (2014)</t>
   </si>
   <si>
-    <t>Sendoel et al. (2017)</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP033366</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076538</t>
-  </si>
-  <si>
-    <t>SRP076538</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/28077873</t>
-  </si>
-  <si>
-    <t>back skin</t>
-  </si>
-  <si>
-    <t>AlvarezDominguez  et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP077522</t>
-  </si>
-  <si>
     <t>SRP033366</t>
   </si>
   <si>
-    <t>SRP077522</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27899360</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/24882012</t>
   </si>
   <si>
-    <t>E14.5 mouse fetal livers</t>
-  </si>
-  <si>
     <t>Dunn et al. (2013)</t>
   </si>
   <si>
-    <t>Fradejas-Villar et al. (2016)</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP028243</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP078005</t>
-  </si>
-  <si>
-    <t>SRP078005</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27956496</t>
-  </si>
-  <si>
     <t>SRP028243</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/24302569</t>
-  </si>
-  <si>
-    <t>Reid et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP091987</t>
-  </si>
-  <si>
-    <t>SRP091987</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/28720757</t>
-  </si>
-  <si>
-    <t>fat tissues</t>
   </si>
 </sst>
 </file>
@@ -839,6 +839,16 @@
     </font>
     <font/>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
@@ -849,10 +859,6 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="8.0"/>
       <color rgb="FF575757"/>
@@ -861,7 +867,11 @@
     <font>
       <u/>
       <sz val="10.0"/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -871,16 +881,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF642A8F"/>
@@ -905,9 +905,21 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF057279"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF00948F"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -923,8 +935,18 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF642A8F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
@@ -933,6 +955,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <sz val="9.0"/>
       <color rgb="FF0000FF"/>
@@ -946,19 +973,8 @@
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
-      <color rgb="FF057279"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
+      <sz val="9.0"/>
       <color rgb="FF00948F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -969,19 +985,9 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF642A8F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
@@ -990,11 +996,29 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Sans-serif"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -1002,30 +1026,6 @@
       <sz val="9.0"/>
       <color rgb="FF00948F"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -1075,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1091,27 +1091,27 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1145,104 +1145,104 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1252,9 +1252,6 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1337,60 +1334,60 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>2010.0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>2010.0</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="16">
         <v>2012.0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="15"/>
@@ -1405,13 +1402,13 @@
       <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>2011.0</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="15"/>
@@ -1426,17 +1423,17 @@
       <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>2012.0</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>15</v>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>32</v>
@@ -1446,20 +1443,20 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>2012.0</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>15</v>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>37</v>
@@ -1469,16 +1466,16 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>2012.0</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="15"/>
@@ -1490,16 +1487,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>2012.0</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="15"/>
@@ -1511,16 +1508,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>2012.0</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="15"/>
@@ -1532,16 +1529,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>2013.0</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="15"/>
@@ -1553,16 +1550,16 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>2013.0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="15"/>
@@ -1598,13 +1595,13 @@
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>2013.0</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="15"/>
@@ -1616,209 +1613,209 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="16">
         <v>2014.0</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>85</v>
+      <c r="D15" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B16" s="13">
         <v>2013.0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="31" t="s">
-        <v>91</v>
+      <c r="F16" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="G16" s="21"/>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="s">
-        <v>92</v>
+      <c r="A17" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="B17" s="16">
         <v>2014.0</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="C17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="12" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B18" s="16">
         <v>2014.0</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>99</v>
+      <c r="C18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="34" t="s">
-        <v>102</v>
+      <c r="A19" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="B19" s="16">
         <v>2014.0</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>103</v>
+      <c r="C19" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="22" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="34" t="s">
-        <v>110</v>
+      <c r="A20" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="B20" s="16">
         <v>2014.0</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>115</v>
+      <c r="A21" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B21" s="16">
         <v>2014.0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="11"/>
+        <v>122</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="39" t="s">
-        <v>118</v>
+      <c r="G21" s="41" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B22" s="16">
         <v>2015.0</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>120</v>
+      <c r="C22" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="34">
+      <c r="A23" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="37">
         <v>2018.0</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="43" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B24" s="13">
         <v>2017.0</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25">
@@ -1828,41 +1825,41 @@
       <c r="B25" s="4">
         <v>2018.0</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>11</v>
+      <c r="D25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B26" s="4">
         <v>2014.0</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>137</v>
+      <c r="C26" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
-      <c r="F27" s="45"/>
+      <c r="F27" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1965,17 +1962,17 @@
       <c r="B2" s="4">
         <v>2018.0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2031,17 +2028,17 @@
       <c r="B2" s="4">
         <v>2018.0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2079,10 +2076,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -2091,26 +2088,29 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>2010.0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>127</v>
+      <c r="E2" s="28"/>
+      <c r="F2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="I2" t="str">
         <f>linkURL(E3)</f>
@@ -2118,49 +2118,49 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>138</v>
+      <c r="A3" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="B3" s="3">
         <v>2011.0</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>139</v>
+      <c r="C3" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>142</v>
+        <v>108</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="s">
-        <v>144</v>
+      <c r="A4" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="B4" s="1">
         <v>2012.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>148</v>
+        <v>108</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="I4" t="str">
         <f>linkURL(F4)</f>
@@ -2168,90 +2168,90 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>2012.0</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="38"/>
+        <v>108</v>
+      </c>
+      <c r="F5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="47" t="s">
-        <v>149</v>
+      <c r="A6" s="40" t="s">
+        <v>128</v>
       </c>
       <c r="B6" s="1">
         <v>2013.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="42" t="s">
-        <v>152</v>
+        <v>130</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="47" t="s">
-        <v>154</v>
+      <c r="A7" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="B7" s="1">
         <v>2013.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="42" t="s">
-        <v>157</v>
+        <v>136</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="32" t="s">
+        <v>139</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
-        <v>159</v>
+      <c r="A8" s="40" t="s">
+        <v>141</v>
       </c>
       <c r="B8" s="1">
         <v>2014.0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>164</v>
+        <v>146</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="40" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="1">
@@ -2260,452 +2260,452 @@
       <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52" t="s">
-        <v>86</v>
+      <c r="D9" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="47" t="s">
-        <v>166</v>
+      <c r="A10" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="B10" s="1">
         <v>2014.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>148</v>
+        <v>108</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="47" t="s">
-        <v>170</v>
+      <c r="A11" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="B11" s="1">
         <v>2014.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>173</v>
+        <v>108</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
-        <v>174</v>
+      <c r="A12" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="B12" s="1">
         <v>2014.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>178</v>
+      <c r="F12" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="47" t="s">
-        <v>115</v>
+      <c r="A13" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="B13" s="1">
         <v>2014.0</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>116</v>
+      <c r="C13" s="30" t="s">
+        <v>122</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="47" t="s">
-        <v>179</v>
+      <c r="A14" s="40" t="s">
+        <v>175</v>
       </c>
       <c r="B14" s="1">
         <v>2015.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>182</v>
+        <v>108</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="38" t="s">
-        <v>183</v>
+      <c r="A15" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="B15" s="3">
         <v>2016.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>148</v>
+        <v>108</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="47" t="s">
-        <v>187</v>
+      <c r="A16" s="40" t="s">
+        <v>183</v>
       </c>
       <c r="B16" s="1">
         <v>2015.0</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="40" t="s">
         <v>188</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="47" t="s">
-        <v>192</v>
       </c>
       <c r="B17" s="1">
         <v>2016.0</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="28" t="s">
         <v>193</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="38" t="s">
-        <v>197</v>
       </c>
       <c r="B18" s="3">
         <v>2017.0</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>198</v>
+      <c r="C18" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="38"/>
+        <v>108</v>
+      </c>
+      <c r="F18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="47" t="s">
-        <v>200</v>
+      <c r="A19" s="40" t="s">
+        <v>196</v>
       </c>
       <c r="B19" s="1">
         <v>2015.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>203</v>
+        <v>108</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="47" t="s">
-        <v>204</v>
+      <c r="A20" s="40" t="s">
+        <v>200</v>
       </c>
       <c r="B20" s="1">
         <v>2015.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="47" t="s">
-        <v>208</v>
+      <c r="A21" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="B21" s="1">
         <v>2015.0</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D21" s="3" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="40" t="s">
         <v>210</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="47" t="s">
-        <v>214</v>
       </c>
       <c r="B22" s="1">
         <v>2015.0</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="40" t="s">
         <v>215</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="47" t="s">
-        <v>219</v>
       </c>
       <c r="B23" s="1">
         <v>2016.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="42" t="s">
-        <v>225</v>
+        <v>217</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="32" t="s">
+        <v>219</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="47" t="s">
-        <v>228</v>
+      <c r="A24" s="40" t="s">
+        <v>222</v>
       </c>
       <c r="B24" s="1">
         <v>2017.0</v>
       </c>
-      <c r="C24" s="46" t="s">
-        <v>230</v>
+      <c r="C24" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>234</v>
+        <v>146</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>226</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="47" t="s">
-        <v>235</v>
+      <c r="A25" s="40" t="s">
+        <v>227</v>
       </c>
       <c r="B25" s="1">
         <v>2016.0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="42" t="s">
-        <v>238</v>
+      <c r="F25" s="32" t="s">
+        <v>230</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="47" t="s">
-        <v>240</v>
+      <c r="A26" s="40" t="s">
+        <v>231</v>
       </c>
       <c r="B26" s="1">
         <v>2017.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>244</v>
+        <v>108</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="47" t="s">
-        <v>246</v>
+      <c r="A27" s="40" t="s">
+        <v>236</v>
       </c>
       <c r="B27" s="1">
         <v>2017.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>252</v>
+        <v>146</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="47" t="s">
-        <v>254</v>
+      <c r="A28" s="40" t="s">
+        <v>241</v>
       </c>
       <c r="B28" s="1">
         <v>2016.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>158</v>
+      <c r="F28" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="47" t="s">
-        <v>261</v>
+      <c r="A29" s="40" t="s">
+        <v>245</v>
       </c>
       <c r="B29" s="1">
         <v>2017.0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>264</v>
+        <v>108</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>248</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +2780,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="27.29"/>
     <col customWidth="1" min="3" max="3" width="71.0"/>
-    <col customWidth="1" min="4" max="6" width="52.29"/>
+    <col customWidth="1" min="4" max="5" width="52.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2790,90 +2790,87 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="23">
+      <c r="A2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="25">
         <v>2014.0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>76</v>
+      <c r="C2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4">
         <v>2015.0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26" t="s">
-        <v>80</v>
+      <c r="C3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="28">
+      <c r="A4" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="33">
         <v>2015.0</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26" t="s">
-        <v>84</v>
+      <c r="C4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="F2"/>
+    <hyperlink r:id="rId2" ref="E2"/>
     <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="F3"/>
+    <hyperlink r:id="rId4" ref="E3"/>
     <hyperlink r:id="rId5" ref="C4"/>
-    <hyperlink r:id="rId6" ref="F4"/>
+    <hyperlink r:id="rId6" ref="E4"/>
   </hyperlinks>
   <drawing r:id="rId7"/>
 </worksheet>
@@ -2891,7 +2888,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="20.86"/>
     <col customWidth="1" min="3" max="3" width="60.0"/>
-    <col customWidth="1" min="4" max="6" width="44.0"/>
+    <col customWidth="1" min="4" max="5" width="44.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2901,41 +2898,40 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="35">
+      <c r="A2" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="53">
         <v>2016.0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="48" t="s">
-        <v>113</v>
+      <c r="C2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2969,13 +2965,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -2984,75 +2980,78 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="B2" s="57">
         <v>2014.0</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>222</v>
+      <c r="C2" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="E2" s="57"/>
-      <c r="F2" s="26" t="s">
-        <v>224</v>
+      <c r="F2" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B3" s="4">
         <v>2017.0</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>231</v>
+      <c r="C3" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>256</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="58" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B4" s="4">
         <v>2014.0</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>251</v>
+      <c r="C4" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B5" s="4">
         <v>2013.0</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/datasets/re-ribo-datasets.xlsx
+++ b/data/datasets/re-ribo-datasets.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="267">
   <si>
     <t>Publication</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Year</t>
   </si>
   <si>
+    <t>SRP_link</t>
+  </si>
+  <si>
     <t>SRP</t>
   </si>
   <si>
@@ -43,33 +46,33 @@
     <t>Wang et al. (2018)</t>
   </si>
   <si>
+    <t>Guo et al. (2010)</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062129</t>
   </si>
   <si>
-    <t>Guo et al. (2010)</t>
+    <t>SRP062129</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP002605</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29950183</t>
+  </si>
+  <si>
     <t>SRP002605</t>
   </si>
   <si>
+    <t>lymphoblastoid</t>
+  </si>
+  <si>
     <t>Done</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/20703300</t>
   </si>
   <si>
-    <t>SRP062129</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29950183</t>
-  </si>
-  <si>
-    <t>lymphoblastoid</t>
-  </si>
-  <si>
     <t>HeLa</t>
   </si>
   <si>
@@ -265,19 +268,121 @@
     <t>SRP038695</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25621764</t>
+  </si>
+  <si>
+    <t>HEK293T</t>
+  </si>
+  <si>
+    <t>Wein et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP040550</t>
+  </si>
+  <si>
+    <t>SRP040550</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25108525</t>
+  </si>
+  <si>
+    <t>Skeletal muscle</t>
+  </si>
+  <si>
+    <t>Menschaert et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP042937</t>
+  </si>
+  <si>
+    <t>SRP042937</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25510491</t>
+  </si>
+  <si>
+    <t>HCT116</t>
+  </si>
+  <si>
+    <t>Rutkowski et al.</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045214</t>
+  </si>
+  <si>
+    <t>SRP045214</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25989971</t>
+  </si>
+  <si>
+    <t>Gao et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP049168</t>
+  </si>
+  <si>
+    <t>SRP049168</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>Cenik et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055009</t>
+  </si>
+  <si>
+    <t>SRP055009</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26297486</t>
+  </si>
+  <si>
+    <t>Ulirsch et al. (2018)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP092068</t>
+  </si>
+  <si>
+    <t>SRP092068</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29551269</t>
+  </si>
+  <si>
+    <t>CD 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blair et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP109126</t>
+  </si>
+  <si>
+    <t>SRP109126</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29141229</t>
+  </si>
+  <si>
+    <t>ESC/NPC</t>
+  </si>
+  <si>
     <t>Lareau et al. (2014)</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25621764</t>
-  </si>
-  <si>
-    <t>HEK293T</t>
-  </si>
-  <si>
-    <t>Wein et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP040550</t>
+    <t>Battle et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
+  </si>
+  <si>
+    <t>SRP047476</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP043036</t>
@@ -286,21 +391,18 @@
     <t>SRP043036</t>
   </si>
   <si>
-    <t>SRP040550</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25108525</t>
-  </si>
-  <si>
-    <t>Skeletal muscle</t>
-  </si>
-  <si>
-    <t>Menschaert et al. (2015)</t>
+    <t>Neutrophils from bone marrow</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/24842990</t>
   </si>
   <si>
+    <t>Ingolia et al. (2011)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
+  </si>
+  <si>
     <t>Downloade</t>
   </si>
   <si>
@@ -313,195 +415,96 @@
     <t>SRP055707</t>
   </si>
   <si>
+    <t>SRP007567</t>
+  </si>
+  <si>
+    <t>Downloaded</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22056041</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>Thoreen et al. (2012)</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26122911</t>
   </si>
   <si>
     <t>Nedialkova et al. (2015)</t>
   </si>
   <si>
-    <t>Neutrophils from bone marrow</t>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP011987</t>
+  </si>
+  <si>
+    <t>SRP011987</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22552098</t>
+  </si>
+  <si>
+    <t>embryonic fibroblast</t>
+  </si>
+  <si>
+    <t>Hurt et al. (2013)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP016625</t>
+  </si>
+  <si>
+    <t>SRP016625</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23766421</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Howard et al. (2013)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP021058</t>
+  </si>
+  <si>
+    <t>SRP021058</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23696641</t>
+  </si>
+  <si>
     <t>SRP056647</t>
   </si>
   <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>Castaneda et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP030014</t>
+  </si>
+  <si>
+    <t>SRP030014</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26052047</t>
   </si>
   <si>
-    <t>Ingolia et al. (2011)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP042937</t>
-  </si>
-  <si>
-    <t>SRP007567</t>
-  </si>
-  <si>
-    <t>Downloaded</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/22056041</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>Thoreen et al. (2012)</t>
-  </si>
-  <si>
-    <t>SRP042937</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25510491</t>
-  </si>
-  <si>
-    <t>HCT116</t>
-  </si>
-  <si>
-    <t>Rutkowski et al.</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045214</t>
-  </si>
-  <si>
-    <t>SRP045214</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25989971</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP011987</t>
-  </si>
-  <si>
-    <t>SRP011987</t>
-  </si>
-  <si>
-    <t>Gao et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP049168</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/22552098</t>
-  </si>
-  <si>
-    <t>SRP049168</t>
-  </si>
-  <si>
-    <t>embryonic fibroblast</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>Cenik et al. (2015)</t>
-  </si>
-  <si>
-    <t>Hurt et al. (2013)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP016625</t>
-  </si>
-  <si>
-    <t>SRP016625</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055009</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/23766421</t>
-  </si>
-  <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>Howard et al. (2013)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP021058</t>
-  </si>
-  <si>
-    <t>SRP021058</t>
-  </si>
-  <si>
-    <t>SRP055009</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26297486</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/23696641</t>
-  </si>
-  <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>Castaneda et al. (2014)</t>
-  </si>
-  <si>
-    <t>Ulirsch et al. (2018)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP030014</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP092068</t>
-  </si>
-  <si>
-    <t>SRP030014</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>SRP092068</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25063675</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29551269</t>
-  </si>
-  <si>
     <t>testes</t>
   </si>
   <si>
-    <t>CD 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blair et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP109126</t>
-  </si>
-  <si>
-    <t>SRP109126</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29141229</t>
-  </si>
-  <si>
-    <t>ESC/NPC</t>
-  </si>
-  <si>
-    <t>Battle et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
-  </si>
-  <si>
-    <t>SRP047476</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
-  </si>
-  <si>
     <t>normal/tumor brain</t>
   </si>
   <si>
@@ -583,6 +586,9 @@
     <t>Hippocampal tissue</t>
   </si>
   <si>
+    <t>Mohammad et al. (2016)</t>
+  </si>
+  <si>
     <t>Blanco et al. (2016)</t>
   </si>
   <si>
@@ -598,6 +604,12 @@
     <t>skin squamous tumours</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
+  </si>
+  <si>
+    <t>SRP063562</t>
+  </si>
+  <si>
     <t>Neri et al. (2017)</t>
   </si>
   <si>
@@ -613,6 +625,9 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064129</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
+  </si>
+  <si>
     <t>SRP064129</t>
   </si>
   <si>
@@ -640,9 +655,6 @@
     <t>SRP064972</t>
   </si>
   <si>
-    <t>Mohammad et al. (2016)</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26638175</t>
   </si>
   <si>
@@ -673,27 +685,18 @@
     <t>SRP070655</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/27380875</t>
   </si>
   <si>
     <t>brain</t>
   </si>
   <si>
-    <t>SRP063562</t>
-  </si>
-  <si>
     <t>CasteloSzekely et al. (2017)</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP074765</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
-  </si>
-  <si>
     <t>SRP074765</t>
   </si>
   <si>
@@ -766,10 +769,10 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/28720757</t>
   </si>
   <si>
+    <t>fat tissues</t>
+  </si>
+  <si>
     <t>Aspden et al (2014)</t>
-  </si>
-  <si>
-    <t>fat tissues</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045475</t>
@@ -839,8 +842,18 @@
     </font>
     <font/>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <u/>
@@ -850,7 +863,102 @@
     </font>
     <font>
       <u/>
+      <sz val="8.0"/>
+      <color rgb="FF575757"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF642A8F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF642A8F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF057279"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF057279"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF057279"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF642A8F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -860,66 +968,9 @@
     </font>
     <font>
       <u/>
-      <sz val="8.0"/>
-      <color rgb="FF575757"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF642A8F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF642A8F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF057279"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="9.0"/>
       <color rgb="FF00948F"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -929,24 +980,8 @@
     </font>
     <font>
       <u/>
-      <sz val="9.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF642A8F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
@@ -955,11 +990,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="9.0"/>
       <color rgb="FF0000FF"/>
@@ -972,60 +1002,33 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Sans-serif"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <u/>
       <sz val="9.0"/>
       <color rgb="FF00948F"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF057279"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF057279"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Verdana"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -1094,24 +1097,24 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1152,10 +1155,16 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -1163,32 +1172,27 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -1199,48 +1203,47 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1318,354 +1321,354 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>2010.0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>2010.0</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
         <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="16">
         <v>2012.0</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7">
         <v>2011.0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="8" t="s">
         <v>27</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7">
         <v>2012.0</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
+      <c r="D6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7">
         <v>2012.0</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
+      <c r="D7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="6">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7">
         <v>2012.0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="8" t="s">
         <v>41</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="6">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7">
         <v>2012.0</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>45</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7">
         <v>2012.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="8" t="s">
         <v>50</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="6">
+        <v>53</v>
+      </c>
+      <c r="B11" s="7">
         <v>2013.0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="8" t="s">
         <v>54</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7">
         <v>2013.0</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>59</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="18">
         <v>2014.0</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="8">
+        <v>67</v>
+      </c>
+      <c r="B14" s="11">
         <v>2013.0</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="8" t="s">
         <v>68</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="16">
         <v>2014.0</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>72</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="13">
         <v>2013.0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="21"/>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" s="16">
         <v>2014.0</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="D17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="12" t="s">
         <v>83</v>
       </c>
@@ -1680,186 +1683,186 @@
       <c r="B18" s="16">
         <v>2014.0</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>89</v>
+      <c r="D18" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="26" t="s">
         <v>90</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="37" t="s">
-        <v>92</v>
       </c>
       <c r="B19" s="16">
         <v>2014.0</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>106</v>
+      <c r="C19" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="22" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="37" t="s">
-        <v>115</v>
+      <c r="A20" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="B20" s="16">
         <v>2014.0</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="22" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B21" s="16">
         <v>2014.0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="11"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="41" t="s">
-        <v>126</v>
+      <c r="G21" s="28" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B22" s="16">
         <v>2015.0</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>131</v>
+      <c r="C22" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="37">
+      <c r="A23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="26">
         <v>2018.0</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="43" t="s">
-        <v>149</v>
+      <c r="F23" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B24" s="13">
         <v>2017.0</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="4">
         <v>2018.0</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4">
         <v>2014.0</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>160</v>
+      <c r="C26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
-      <c r="F27" s="47"/>
+      <c r="F27" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1940,39 +1943,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>2018.0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2006,39 +2009,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>2018.0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2077,40 +2080,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>2010.0</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>18</v>
+      <c r="C2" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="I2" t="str">
         <f>linkURL(E3)</f>
@@ -2118,49 +2121,49 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="s">
-        <v>104</v>
+      <c r="A3" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="B3" s="3">
         <v>2011.0</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>105</v>
+      <c r="C3" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>109</v>
+        <v>133</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>134</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
-        <v>111</v>
+      <c r="A4" s="41" t="s">
+        <v>136</v>
       </c>
       <c r="B4" s="1">
         <v>2012.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="I4" t="str">
         <f>linkURL(F4)</f>
@@ -2168,541 +2171,541 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="40" t="s">
-        <v>39</v>
+      <c r="A5" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>2012.0</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>40</v>
+      <c r="C5" s="32" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="28"/>
+        <v>133</v>
+      </c>
+      <c r="F5" s="30"/>
     </row>
     <row r="6">
-      <c r="A6" s="40" t="s">
-        <v>128</v>
+      <c r="A6" s="41" t="s">
+        <v>143</v>
       </c>
       <c r="B6" s="1">
         <v>2013.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="32" t="s">
-        <v>132</v>
+        <v>145</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="34" t="s">
+        <v>147</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
-        <v>134</v>
+      <c r="A7" s="41" t="s">
+        <v>149</v>
       </c>
       <c r="B7" s="1">
         <v>2013.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="32" t="s">
-        <v>139</v>
+        <v>151</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
-        <v>141</v>
+      <c r="A8" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="B8" s="1">
         <v>2014.0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>150</v>
+        <v>158</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="40" t="s">
-        <v>70</v>
+      <c r="A9" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="1">
         <v>2014.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="D9" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="47"/>
       <c r="F9" s="48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="40" t="s">
-        <v>162</v>
+      <c r="A10" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="B10" s="1">
         <v>2014.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="40" t="s">
-        <v>166</v>
+      <c r="A11" s="41" t="s">
+        <v>167</v>
       </c>
       <c r="B11" s="1">
         <v>2014.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>169</v>
+        <v>133</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="40" t="s">
-        <v>170</v>
+      <c r="A12" s="41" t="s">
+        <v>171</v>
       </c>
       <c r="B12" s="1">
         <v>2014.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="32" t="s">
-        <v>173</v>
+      <c r="F12" s="34" t="s">
+        <v>174</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="40" t="s">
-        <v>121</v>
+      <c r="A13" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="B13" s="1">
         <v>2014.0</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>122</v>
+      <c r="C13" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="40" t="s">
-        <v>175</v>
+      <c r="A14" s="41" t="s">
+        <v>176</v>
       </c>
       <c r="B14" s="1">
         <v>2015.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>178</v>
+        <v>133</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>179</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="s">
-        <v>179</v>
+      <c r="A15" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="B15" s="3">
         <v>2016.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="40" t="s">
-        <v>183</v>
+      <c r="A16" s="41" t="s">
+        <v>184</v>
       </c>
       <c r="B16" s="1">
         <v>2015.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="32" t="s">
-        <v>186</v>
+      <c r="F16" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="40" t="s">
-        <v>188</v>
+      <c r="A17" s="41" t="s">
+        <v>190</v>
       </c>
       <c r="B17" s="1">
         <v>2016.0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>192</v>
+        <v>158</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="28" t="s">
-        <v>193</v>
+      <c r="A18" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="B18" s="3">
         <v>2017.0</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>194</v>
+      <c r="C18" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="28"/>
+        <v>133</v>
+      </c>
+      <c r="F18" s="30"/>
     </row>
     <row r="19">
-      <c r="A19" s="40" t="s">
-        <v>196</v>
+      <c r="A19" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="B19" s="1">
         <v>2015.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>199</v>
+        <v>133</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="40" t="s">
-        <v>200</v>
+      <c r="A20" s="41" t="s">
+        <v>205</v>
       </c>
       <c r="B20" s="1">
         <v>2015.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>140</v>
+        <v>158</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="40" t="s">
-        <v>204</v>
+      <c r="A21" s="41" t="s">
+        <v>209</v>
       </c>
       <c r="B21" s="1">
         <v>2015.0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>209</v>
+      <c r="F21" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="40" t="s">
-        <v>210</v>
+      <c r="A22" s="41" t="s">
+        <v>214</v>
       </c>
       <c r="B22" s="1">
         <v>2015.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>213</v>
+        <v>133</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>217</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="40" t="s">
-        <v>215</v>
+      <c r="A23" s="41" t="s">
+        <v>219</v>
       </c>
       <c r="B23" s="1">
         <v>2016.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="32" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="34" t="s">
+        <v>222</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="40" t="s">
-        <v>222</v>
+      <c r="A24" s="41" t="s">
+        <v>224</v>
       </c>
       <c r="B24" s="1">
         <v>2017.0</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>223</v>
+      <c r="C24" s="39" t="s">
+        <v>225</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>226</v>
+        <v>158</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>227</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="40" t="s">
-        <v>227</v>
+      <c r="A25" s="41" t="s">
+        <v>228</v>
       </c>
       <c r="B25" s="1">
         <v>2016.0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="32" t="s">
-        <v>230</v>
+      <c r="F25" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="40" t="s">
-        <v>231</v>
+      <c r="A26" s="41" t="s">
+        <v>232</v>
       </c>
       <c r="B26" s="1">
         <v>2017.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>234</v>
+        <v>133</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="40" t="s">
-        <v>236</v>
+      <c r="A27" s="41" t="s">
+        <v>237</v>
       </c>
       <c r="B27" s="1">
         <v>2017.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="G27" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="34" t="s">
         <v>240</v>
       </c>
+      <c r="G27" s="45" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="40" t="s">
-        <v>241</v>
+      <c r="A28" s="41" t="s">
+        <v>242</v>
       </c>
       <c r="B28" s="1">
         <v>2016.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="32" t="s">
-        <v>244</v>
+      <c r="F28" s="34" t="s">
+        <v>245</v>
       </c>
       <c r="G28" s="56" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="40" t="s">
-        <v>245</v>
+      <c r="A29" s="41" t="s">
+        <v>246</v>
       </c>
       <c r="B29" s="1">
         <v>2017.0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>248</v>
+        <v>133</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>249</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>250</v>
@@ -2794,73 +2797,73 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="25">
+      <c r="A2" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="33">
         <v>2014.0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>93</v>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4">
         <v>2015.0</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>98</v>
+      <c r="C3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="33">
+      <c r="A4" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="42">
         <v>2015.0</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>103</v>
+      <c r="C4" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2902,36 +2905,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="53">
+      <c r="A2" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="51">
         <v>2016.0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>224</v>
+      <c r="C2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2969,89 +2972,89 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B2" s="57">
         <v>2014.0</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="43" t="s">
         <v>252</v>
       </c>
+      <c r="D2" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="E2" s="57"/>
-      <c r="F2" s="29" t="s">
-        <v>253</v>
+      <c r="F2" s="38" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B3" s="4">
         <v>2017.0</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="43" t="s">
         <v>256</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>257</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B4" s="4">
         <v>2014.0</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="8" t="s">
         <v>261</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B5" s="4">
         <v>2013.0</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="D5" s="43" t="s">
         <v>265</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/data/datasets/re-ribo-datasets.xlsx
+++ b/data/datasets/re-ribo-datasets.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="266">
   <si>
     <t>Publication</t>
   </si>
@@ -370,31 +370,49 @@
     <t>ESC/NPC</t>
   </si>
   <si>
+    <t>Battle et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
+  </si>
+  <si>
+    <t>SRP047476</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
+  </si>
+  <si>
     <t>Lareau et al. (2014)</t>
   </si>
   <si>
-    <t>Battle et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
-  </si>
-  <si>
-    <t>SRP047476</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP043036</t>
   </si>
   <si>
     <t>SRP043036</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24842990</t>
+  </si>
+  <si>
     <t>Neutrophils from bone marrow</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/24842990</t>
+    <t>Sen et al. (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055707 </t>
+  </si>
+  <si>
+    <t>SRP055707</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26122911</t>
+  </si>
+  <si>
+    <t>Nedialkova et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
   </si>
   <si>
     <t>Ingolia et al. (2011)</t>
@@ -403,16 +421,7 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
   </si>
   <si>
-    <t>Downloade</t>
-  </si>
-  <si>
-    <t>Sen et al. (2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055707 </t>
-  </si>
-  <si>
-    <t>SRP055707</t>
+    <t>SRP056647</t>
   </si>
   <si>
     <t>SRP007567</t>
@@ -430,10 +439,7 @@
     <t>Thoreen et al. (2012)</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26122911</t>
-  </si>
-  <si>
-    <t>Nedialkova et al. (2015)</t>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26052047</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP011987</t>
@@ -457,9 +463,6 @@
     <t>SRP016625</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/23766421</t>
   </si>
   <si>
@@ -478,9 +481,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/23696641</t>
   </si>
   <si>
-    <t>SRP056647</t>
-  </si>
-  <si>
     <t>liver</t>
   </si>
   <si>
@@ -496,9 +496,6 @@
     <t>Started</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26052047</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25063675</t>
   </si>
   <si>
@@ -559,12 +556,24 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26486724</t>
   </si>
   <si>
+    <t>Mohammad et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
+  </si>
+  <si>
+    <t>SRP063562</t>
+  </si>
+  <si>
     <t>Reid et al. (2016)</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP059390</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
+  </si>
+  <si>
     <t>SRP059390</t>
   </si>
   <si>
@@ -586,9 +595,6 @@
     <t>Hippocampal tissue</t>
   </si>
   <si>
-    <t>Mohammad et al. (2016)</t>
-  </si>
-  <si>
     <t>Blanco et al. (2016)</t>
   </si>
   <si>
@@ -604,12 +610,6 @@
     <t>skin squamous tumours</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
-  </si>
-  <si>
-    <t>SRP063562</t>
-  </si>
-  <si>
     <t>Neri et al. (2017)</t>
   </si>
   <si>
@@ -625,7 +625,7 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064129</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
+    <t>Aspden et al (2014)</t>
   </si>
   <si>
     <t>SRP064129</t>
@@ -646,15 +646,36 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26554015</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045475</t>
+  </si>
+  <si>
+    <t>SRP045475</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25144939</t>
+  </si>
+  <si>
+    <t>Chen et al (2017)</t>
+  </si>
+  <si>
     <t>Fields et al. (2015)</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP108999</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064972</t>
   </si>
   <si>
+    <t>SRP108999</t>
+  </si>
+  <si>
     <t>SRP064972</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29194454</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26638175</t>
   </si>
   <si>
@@ -682,27 +703,45 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP070655</t>
   </si>
   <si>
+    <t>Kronja et al (2014)</t>
+  </si>
+  <si>
     <t>SRP070655</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP033366</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/27380875</t>
   </si>
   <si>
     <t>brain</t>
   </si>
   <si>
+    <t>SRP033366</t>
+  </si>
+  <si>
     <t>CasteloSzekely et al. (2017)</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24882012</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP074765</t>
   </si>
   <si>
     <t>SRP074765</t>
   </si>
   <si>
+    <t>Dunn et al. (2013)</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/28622766</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP028243</t>
+  </si>
+  <si>
     <t>Gerashchenko et al. (2016)</t>
   </si>
   <si>
@@ -715,6 +754,12 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/27638886</t>
   </si>
   <si>
+    <t>SRP028243</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24302569</t>
+  </si>
+  <si>
     <t>Sendoel et al. (2017)</t>
   </si>
   <si>
@@ -770,54 +815,6 @@
   </si>
   <si>
     <t>fat tissues</t>
-  </si>
-  <si>
-    <t>Aspden et al (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045475</t>
-  </si>
-  <si>
-    <t>SRP045475</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25144939</t>
-  </si>
-  <si>
-    <t>Chen et al (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP108999</t>
-  </si>
-  <si>
-    <t>SRP108999</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29194454</t>
-  </si>
-  <si>
-    <t>Kronja et al (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP033366</t>
-  </si>
-  <si>
-    <t>SRP033366</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/24882012</t>
-  </si>
-  <si>
-    <t>Dunn et al. (2013)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP028243</t>
-  </si>
-  <si>
-    <t>SRP028243</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/24302569</t>
   </si>
 </sst>
 </file>
@@ -938,9 +935,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF642A8F"/>
-      <name val="Arial"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -949,15 +944,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF642A8F"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -968,9 +955,8 @@
     </font>
     <font>
       <u/>
-      <sz val="9.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Verdana"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
@@ -979,6 +965,11 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -998,6 +989,12 @@
     <font>
       <u/>
       <sz val="9.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
       <color rgb="FF1155CC"/>
       <name val="Verdana"/>
     </font>
@@ -1026,13 +1023,13 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <name val="Verdana"/>
     </font>
     <font>
       <u/>
@@ -1169,49 +1166,49 @@
     <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1227,34 +1224,34 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1793,7 +1790,7 @@
         <v>109</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="30" t="s">
         <v>110</v>
       </c>
       <c r="G23" s="13" t="s">
@@ -1843,26 +1840,26 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="4">
         <v>2014.0</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27">
-      <c r="F27" s="35"/>
+      <c r="F27" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2096,24 +2093,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>2010.0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>124</v>
+      <c r="G2" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="I2" t="str">
         <f>linkURL(E3)</f>
@@ -2121,49 +2118,49 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30" t="s">
-        <v>126</v>
+      <c r="A3" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="B3" s="3">
         <v>2011.0</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>127</v>
+      <c r="C3" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="41" t="s">
-        <v>136</v>
+      <c r="A4" s="44" t="s">
+        <v>139</v>
       </c>
       <c r="B4" s="1">
         <v>2012.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I4" t="str">
         <f>linkURL(F4)</f>
@@ -2171,67 +2168,67 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>2012.0</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="30"/>
+        <v>136</v>
+      </c>
+      <c r="F5" s="32"/>
     </row>
     <row r="6">
-      <c r="A6" s="41" t="s">
-        <v>143</v>
+      <c r="A6" s="44" t="s">
+        <v>145</v>
       </c>
       <c r="B6" s="1">
         <v>2013.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="34" t="s">
         <v>147</v>
       </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="36" t="s">
+        <v>148</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41" t="s">
-        <v>149</v>
+      <c r="A7" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="B7" s="1">
         <v>2013.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="34" t="s">
         <v>152</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="44" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="1">
@@ -2246,15 +2243,15 @@
       <c r="E8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="44" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="1">
@@ -2271,203 +2268,203 @@
         <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="44" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="41" t="s">
-        <v>163</v>
       </c>
       <c r="B10" s="1">
         <v>2014.0</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="34" t="s">
+      <c r="G10" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="41" t="s">
-        <v>167</v>
       </c>
       <c r="B11" s="1">
         <v>2014.0</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="G11" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="41" t="s">
-        <v>171</v>
       </c>
       <c r="B12" s="1">
         <v>2014.0</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="34" t="s">
+      <c r="G12" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="49" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="44" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="1">
         <v>2014.0</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="34" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="s">
-        <v>176</v>
+      <c r="A14" s="44" t="s">
+        <v>175</v>
       </c>
       <c r="B14" s="1">
         <v>2015.0</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="36" t="s">
         <v>178</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>179</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="30" t="s">
-        <v>180</v>
+      <c r="A15" s="32" t="s">
+        <v>182</v>
       </c>
       <c r="B15" s="3">
         <v>2016.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>183</v>
+        <v>136</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>186</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="41" t="s">
-        <v>184</v>
+      <c r="A16" s="44" t="s">
+        <v>187</v>
       </c>
       <c r="B16" s="1">
         <v>2015.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>188</v>
+      <c r="F16" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41" t="s">
-        <v>190</v>
+      <c r="A17" s="44" t="s">
+        <v>192</v>
       </c>
       <c r="B17" s="1">
         <v>2016.0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>194</v>
+      <c r="F17" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="32" t="s">
         <v>197</v>
       </c>
       <c r="B18" s="3">
         <v>2017.0</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="34" t="s">
         <v>198</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>199</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="30"/>
+        <v>136</v>
+      </c>
+      <c r="F18" s="32"/>
     </row>
     <row r="19">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="44" t="s">
         <v>200</v>
       </c>
       <c r="B19" s="1">
@@ -2480,17 +2477,17 @@
         <v>203</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>204</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="44" t="s">
         <v>205</v>
       </c>
       <c r="B20" s="1">
@@ -2505,210 +2502,210 @@
       <c r="E20" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="56" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41" t="s">
-        <v>209</v>
+      <c r="A21" s="44" t="s">
+        <v>213</v>
       </c>
       <c r="B21" s="1">
         <v>2015.0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>213</v>
+      <c r="F21" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="41" t="s">
-        <v>214</v>
+      <c r="A22" s="44" t="s">
+        <v>221</v>
       </c>
       <c r="B22" s="1">
         <v>2015.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>217</v>
+        <v>136</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41" t="s">
-        <v>219</v>
+      <c r="A23" s="44" t="s">
+        <v>226</v>
       </c>
       <c r="B23" s="1">
         <v>2016.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="34" t="s">
-        <v>222</v>
+        <v>229</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="36" t="s">
+        <v>231</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="41" t="s">
-        <v>224</v>
+      <c r="A24" s="44" t="s">
+        <v>234</v>
       </c>
       <c r="B24" s="1">
         <v>2017.0</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>225</v>
+      <c r="C24" s="42" t="s">
+        <v>236</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>227</v>
+      <c r="F24" s="36" t="s">
+        <v>239</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41" t="s">
-        <v>228</v>
+      <c r="A25" s="44" t="s">
+        <v>241</v>
       </c>
       <c r="B25" s="1">
         <v>2016.0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="34" t="s">
-        <v>231</v>
+      <c r="F25" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="41" t="s">
-        <v>232</v>
+      <c r="A26" s="44" t="s">
+        <v>247</v>
       </c>
       <c r="B26" s="1">
         <v>2017.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>235</v>
+        <v>136</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>250</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41" t="s">
-        <v>237</v>
+      <c r="A27" s="44" t="s">
+        <v>252</v>
       </c>
       <c r="B27" s="1">
         <v>2017.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="34" t="s">
-        <v>240</v>
+      <c r="F27" s="36" t="s">
+        <v>255</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="41" t="s">
-        <v>242</v>
+      <c r="A28" s="44" t="s">
+        <v>257</v>
       </c>
       <c r="B28" s="1">
         <v>2016.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="56" t="s">
+      <c r="F28" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" s="59" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41" t="s">
-        <v>246</v>
+      <c r="A29" s="44" t="s">
+        <v>261</v>
       </c>
       <c r="B29" s="1">
         <v>2017.0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>249</v>
+        <v>136</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>264</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2811,7 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B2" s="33">
         <v>2014.0</v>
@@ -2822,58 +2819,55 @@
       <c r="C2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>128</v>
+      <c r="F2" s="37" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4">
         <v>2015.0</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="B4" s="40">
+        <v>2015.0</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="42">
-        <v>2015.0</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>159</v>
+      <c r="D4" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="E2"/>
+    <hyperlink r:id="rId2" ref="F2"/>
     <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="E3"/>
+    <hyperlink r:id="rId4" ref="F3"/>
     <hyperlink r:id="rId5" ref="C4"/>
-    <hyperlink r:id="rId6" ref="E4"/>
+    <hyperlink r:id="rId6" ref="F4"/>
   </hyperlinks>
   <drawing r:id="rId7"/>
 </worksheet>
@@ -2921,20 +2915,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="51">
+      <c r="A2" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="50">
         <v>2016.0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>202</v>
+        <v>180</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2988,73 +2982,73 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="57">
+      <c r="A2" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="55">
         <v>2014.0</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="38" t="s">
-        <v>254</v>
+      <c r="C2" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="37" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B3" s="4">
         <v>2017.0</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58" t="s">
-        <v>258</v>
+      <c r="C3" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="B4" s="4">
         <v>2014.0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>262</v>
+        <v>233</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="B5" s="4">
         <v>2013.0</v>
       </c>
-      <c r="C5" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>266</v>
+      <c r="C5" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/datasets/re-ribo-datasets.xlsx
+++ b/data/datasets/re-ribo-datasets.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="270">
   <si>
     <t>Publication</t>
   </si>
@@ -43,12 +43,12 @@
     <t>Adapter provided?</t>
   </si>
   <si>
+    <t>Guo et al. (2010)</t>
+  </si>
+  <si>
     <t>Wang et al. (2018)</t>
   </si>
   <si>
-    <t>Guo et al. (2010)</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062129</t>
   </si>
   <si>
@@ -382,6 +382,18 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
   </si>
   <si>
+    <t>Calviello et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063852</t>
+  </si>
+  <si>
+    <t>SRP063852</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26657557</t>
+  </si>
+  <si>
     <t>Lareau et al. (2014)</t>
   </si>
   <si>
@@ -412,12 +424,12 @@
     <t>Nedialkova et al. (2015)</t>
   </si>
   <si>
+    <t>Ingolia et al. (2011)</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
   </si>
   <si>
-    <t>Ingolia et al. (2011)</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
   </si>
   <si>
@@ -538,12 +550,21 @@
     <t>SRP045501</t>
   </si>
   <si>
+    <t>Mohammad et al. (2016)</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25263593</t>
   </si>
   <si>
     <t>3T3/HEK293</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
+  </si>
+  <si>
+    <t>SRP063562</t>
+  </si>
+  <si>
     <t>Janich et al. (2015)</t>
   </si>
   <si>
@@ -553,27 +574,18 @@
     <t>SRP056576</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26486724</t>
   </si>
   <si>
-    <t>Mohammad et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
-  </si>
-  <si>
-    <t>SRP063562</t>
-  </si>
-  <si>
     <t>Reid et al. (2016)</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP059390</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
-  </si>
-  <si>
     <t>SRP059390</t>
   </si>
   <si>
@@ -625,25 +637,136 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064129</t>
   </si>
   <si>
+    <t>SRP064129</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26443847</t>
+  </si>
+  <si>
+    <t>Atger et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064304</t>
+  </si>
+  <si>
+    <t>SRP064304</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26554015</t>
+  </si>
+  <si>
+    <t>Fields et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064972</t>
+  </si>
+  <si>
+    <t>SRP064972</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26638175</t>
+  </si>
+  <si>
+    <t>Bone marrow-derived dendritic cells</t>
+  </si>
+  <si>
+    <t>Laguesse et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP065804</t>
+  </si>
+  <si>
+    <t>SRP065804</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26651292</t>
+  </si>
+  <si>
+    <t>E14.5 forebrain</t>
+  </si>
+  <si>
+    <t>Hornstein et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP070655</t>
+  </si>
+  <si>
+    <t>SRP070655</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27380875</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>CasteloSzekely et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP074765</t>
+  </si>
+  <si>
+    <t>SRP074765</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28622766</t>
+  </si>
+  <si>
+    <t>Gerashchenko et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076093</t>
+  </si>
+  <si>
+    <t>SRP076093</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27638886</t>
+  </si>
+  <si>
+    <t>Sendoel et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076538</t>
+  </si>
+  <si>
+    <t>SRP076538</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28077873</t>
+  </si>
+  <si>
+    <t>back skin</t>
+  </si>
+  <si>
+    <t>AlvarezDominguez  et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP077522</t>
+  </si>
+  <si>
+    <t>SRP077522</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27899360</t>
+  </si>
+  <si>
+    <t>E14.5 mouse fetal livers</t>
+  </si>
+  <si>
+    <t>Fradejas-Villar et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP078005</t>
+  </si>
+  <si>
+    <t>SRP078005</t>
+  </si>
+  <si>
     <t>Aspden et al (2014)</t>
   </si>
   <si>
-    <t>SRP064129</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26443847</t>
-  </si>
-  <si>
-    <t>Atger et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064304</t>
-  </si>
-  <si>
-    <t>SRP064304</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26554015</t>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27956496</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045475</t>
@@ -655,173 +778,62 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25144939</t>
   </si>
   <si>
+    <t>Reid et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP091987</t>
+  </si>
+  <si>
     <t>Chen et al (2017)</t>
   </si>
   <si>
-    <t>Fields et al. (2015)</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP108999</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064972</t>
+    <t>SRP091987</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28720757</t>
   </si>
   <si>
     <t>SRP108999</t>
   </si>
   <si>
-    <t>SRP064972</t>
+    <t>fat tissues</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/29194454</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26638175</t>
-  </si>
-  <si>
-    <t>Bone marrow-derived dendritic cells</t>
-  </si>
-  <si>
-    <t>Laguesse et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP065804</t>
-  </si>
-  <si>
-    <t>SRP065804</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26651292</t>
-  </si>
-  <si>
-    <t>E14.5 forebrain</t>
-  </si>
-  <si>
-    <t>Hornstein et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP070655</t>
-  </si>
-  <si>
     <t>Kronja et al (2014)</t>
   </si>
   <si>
-    <t>SRP070655</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP033366</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27380875</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
     <t>SRP033366</t>
   </si>
   <si>
-    <t>CasteloSzekely et al. (2017)</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/24882012</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP074765</t>
-  </si>
-  <si>
-    <t>SRP074765</t>
-  </si>
-  <si>
     <t>Dunn et al. (2013)</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/28622766</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP028243</t>
   </si>
   <si>
-    <t>Gerashchenko et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076093</t>
-  </si>
-  <si>
-    <t>SRP076093</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27638886</t>
-  </si>
-  <si>
     <t>SRP028243</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/24302569</t>
-  </si>
-  <si>
-    <t>Sendoel et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076538</t>
-  </si>
-  <si>
-    <t>SRP076538</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/28077873</t>
-  </si>
-  <si>
-    <t>back skin</t>
-  </si>
-  <si>
-    <t>AlvarezDominguez  et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP077522</t>
-  </si>
-  <si>
-    <t>SRP077522</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27899360</t>
-  </si>
-  <si>
-    <t>E14.5 mouse fetal livers</t>
-  </si>
-  <si>
-    <t>Fradejas-Villar et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP078005</t>
-  </si>
-  <si>
-    <t>SRP078005</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27956496</t>
-  </si>
-  <si>
-    <t>Reid et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP091987</t>
-  </si>
-  <si>
-    <t>SRP091987</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/28720757</t>
-  </si>
-  <si>
-    <t>fat tissues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -935,7 +947,18 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF222222"/>
+      <name val="Lora"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -1023,13 +1046,13 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <u/>
@@ -1075,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1169,89 +1192,97 @@
     <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1335,7 +1366,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7">
         <v>2010.0</v>
@@ -1358,7 +1389,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7">
         <v>2010.0</v>
@@ -1820,7 +1851,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4">
         <v>2018.0</v>
@@ -1859,7 +1890,24 @@
       </c>
     </row>
     <row r="27">
-      <c r="F27" s="31"/>
+      <c r="A27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2015.0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1914,8 +1962,10 @@
     <hyperlink r:id="rId49" ref="C26"/>
     <hyperlink r:id="rId50" ref="D26"/>
     <hyperlink r:id="rId51" ref="F26"/>
+    <hyperlink r:id="rId52" ref="C27"/>
+    <hyperlink r:id="rId53" ref="F27"/>
   </hyperlinks>
-  <drawing r:id="rId52"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -1957,7 +2007,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>2018.0</v>
@@ -2023,7 +2073,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>2018.0</v>
@@ -2093,24 +2143,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="s">
-        <v>9</v>
+      <c r="A2" s="34" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>2010.0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>125</v>
+      <c r="G2" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="I2" t="str">
         <f>linkURL(E3)</f>
@@ -2118,49 +2168,49 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="s">
-        <v>132</v>
+      <c r="A3" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="B3" s="3">
         <v>2011.0</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>133</v>
+      <c r="C3" s="44" t="s">
+        <v>137</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="44" t="s">
-        <v>139</v>
+      <c r="A4" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="B4" s="1">
         <v>2012.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I4" t="str">
         <f>linkURL(F4)</f>
@@ -2168,90 +2218,90 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>2012.0</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="32"/>
+        <v>140</v>
+      </c>
+      <c r="F5" s="34"/>
     </row>
     <row r="6">
-      <c r="A6" s="44" t="s">
-        <v>145</v>
+      <c r="A6" s="46" t="s">
+        <v>149</v>
       </c>
       <c r="B6" s="1">
         <v>2013.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="36" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="38" t="s">
+        <v>152</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44" t="s">
-        <v>150</v>
+      <c r="A7" s="46" t="s">
+        <v>154</v>
       </c>
       <c r="B7" s="1">
         <v>2013.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="36" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="44" t="s">
-        <v>155</v>
+      <c r="A8" s="46" t="s">
+        <v>159</v>
       </c>
       <c r="B8" s="1">
         <v>2014.0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="1">
@@ -2260,452 +2310,452 @@
       <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="50" t="s">
         <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="44" t="s">
-        <v>162</v>
+      <c r="A10" s="46" t="s">
+        <v>166</v>
       </c>
       <c r="B10" s="1">
         <v>2014.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>165</v>
+        <v>140</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="44" t="s">
-        <v>166</v>
+      <c r="A11" s="46" t="s">
+        <v>170</v>
       </c>
       <c r="B11" s="1">
         <v>2014.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>173</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="44" t="s">
-        <v>170</v>
+      <c r="A12" s="46" t="s">
+        <v>174</v>
       </c>
       <c r="B12" s="1">
         <v>2014.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>174</v>
+      <c r="F12" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="46" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="1">
         <v>2014.0</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="36" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="44" t="s">
-        <v>175</v>
+      <c r="A14" s="46" t="s">
+        <v>182</v>
       </c>
       <c r="B14" s="1">
         <v>2015.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>178</v>
+        <v>140</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="32" t="s">
-        <v>182</v>
+      <c r="A15" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="B15" s="3">
         <v>2016.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>186</v>
+        <v>140</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>190</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="44" t="s">
-        <v>187</v>
+      <c r="A16" s="46" t="s">
+        <v>191</v>
       </c>
       <c r="B16" s="1">
         <v>2015.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>191</v>
+      <c r="F16" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="44" t="s">
-        <v>192</v>
+      <c r="A17" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="B17" s="1">
         <v>2016.0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>196</v>
+        <v>162</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="32" t="s">
-        <v>197</v>
+      <c r="A18" s="34" t="s">
+        <v>201</v>
       </c>
       <c r="B18" s="3">
         <v>2017.0</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>198</v>
+      <c r="C18" s="36" t="s">
+        <v>202</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="32"/>
+        <v>140</v>
+      </c>
+      <c r="F18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="44" t="s">
-        <v>200</v>
+      <c r="A19" s="46" t="s">
+        <v>204</v>
       </c>
       <c r="B19" s="1">
         <v>2015.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>204</v>
+        <v>140</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>207</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="44" t="s">
-        <v>205</v>
+      <c r="A20" s="46" t="s">
+        <v>208</v>
       </c>
       <c r="B20" s="1">
         <v>2015.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" s="44" t="s">
-        <v>213</v>
+      <c r="A21" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="B21" s="1">
         <v>2015.0</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="G21" s="56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="46" t="s">
         <v>217</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="44" t="s">
-        <v>221</v>
       </c>
       <c r="B22" s="1">
         <v>2015.0</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="46" t="s">
         <v>222</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="44" t="s">
-        <v>226</v>
       </c>
       <c r="B23" s="1">
         <v>2016.0</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="46" t="s">
         <v>227</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="44" t="s">
-        <v>234</v>
       </c>
       <c r="B24" s="1">
         <v>2017.0</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>236</v>
+      <c r="C24" s="44" t="s">
+        <v>228</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>239</v>
+        <v>162</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>230</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="44" t="s">
-        <v>241</v>
+      <c r="A25" s="46" t="s">
+        <v>231</v>
       </c>
       <c r="B25" s="1">
         <v>2016.0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="36" t="s">
-        <v>244</v>
+      <c r="F25" s="38" t="s">
+        <v>234</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="44" t="s">
-        <v>247</v>
+      <c r="A26" s="46" t="s">
+        <v>235</v>
       </c>
       <c r="B26" s="1">
         <v>2017.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>250</v>
+        <v>140</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>238</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="44" t="s">
-        <v>252</v>
+      <c r="A27" s="46" t="s">
+        <v>240</v>
       </c>
       <c r="B27" s="1">
         <v>2017.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>256</v>
+        <v>162</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="44" t="s">
-        <v>257</v>
+      <c r="A28" s="46" t="s">
+        <v>245</v>
       </c>
       <c r="B28" s="1">
         <v>2016.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="36" t="s">
-        <v>260</v>
+      <c r="F28" s="38" t="s">
+        <v>249</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="44" t="s">
-        <v>261</v>
+      <c r="A29" s="46" t="s">
+        <v>253</v>
       </c>
       <c r="B29" s="1">
         <v>2017.0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>264</v>
+        <v>140</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>258</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2810,54 +2860,54 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="33">
+      <c r="A2" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="35">
         <v>2014.0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B3" s="4">
         <v>2015.0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="40">
+      <c r="A4" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="42">
         <v>2015.0</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>140</v>
+      <c r="C4" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2915,20 +2965,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="50">
+      <c r="A2" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="51">
         <v>2016.0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="52" t="s">
-        <v>184</v>
+      <c r="F2" s="54" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2982,73 +3032,73 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="55">
+      <c r="A2" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="58">
         <v>2014.0</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="37" t="s">
-        <v>211</v>
+      <c r="C2" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="39" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="B3" s="4">
         <v>2017.0</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57" t="s">
-        <v>218</v>
+      <c r="C3" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="60" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="B4" s="4">
         <v>2014.0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>235</v>
+        <v>264</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="B5" s="4">
         <v>2013.0</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>246</v>
+      <c r="C5" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/datasets/re-ribo-datasets.xlsx
+++ b/data/datasets/re-ribo-datasets.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="275">
   <si>
     <t>Publication</t>
   </si>
@@ -43,12 +43,12 @@
     <t>Adapter provided?</t>
   </si>
   <si>
+    <t>Wang et al. (2018)</t>
+  </si>
+  <si>
     <t>Guo et al. (2010)</t>
   </si>
   <si>
-    <t>Wang et al. (2018)</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062129</t>
   </si>
   <si>
@@ -322,18 +322,69 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP049168</t>
   </si>
   <si>
+    <t>Lareau et al. (2014)</t>
+  </si>
+  <si>
     <t>SRP049168</t>
   </si>
   <si>
     <t>kidney</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP043036</t>
+  </si>
+  <si>
+    <t>SRP043036</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24842990</t>
+  </si>
+  <si>
+    <t>Neutrophils from bone marrow</t>
+  </si>
+  <si>
+    <t>Sen et al. (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055707 </t>
+  </si>
+  <si>
+    <t>SRP055707</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26122911</t>
+  </si>
+  <si>
+    <t>Nedialkova et al. (2015)</t>
+  </si>
+  <si>
+    <t>Ingolia et al. (2011)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
+  </si>
+  <si>
     <t>Cenik et al. (2015)</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055009</t>
   </si>
   <si>
+    <t>SRP007567</t>
+  </si>
+  <si>
+    <t>Downloaded</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22056041</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>Thoreen et al. (2012)</t>
+  </si>
+  <si>
     <t>SRP055009</t>
   </si>
   <si>
@@ -343,15 +394,27 @@
     <t>Ulirsch et al. (2018)</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP011987</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP092068</t>
   </si>
   <si>
+    <t>SRP011987</t>
+  </si>
+  <si>
     <t>SRP092068</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22552098</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/29551269</t>
   </si>
   <si>
+    <t>embryonic fibroblast</t>
+  </si>
+  <si>
     <t>CD 34</t>
   </si>
   <si>
@@ -370,153 +433,105 @@
     <t>ESC/NPC</t>
   </si>
   <si>
+    <t>Hurt et al. (2013)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP016625</t>
+  </si>
+  <si>
+    <t>SRP016625</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23766421</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Howard et al. (2013)</t>
+  </si>
+  <si>
     <t>Battle et al. (2014)</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP021058</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
   </si>
   <si>
+    <t>SRP021058</t>
+  </si>
+  <si>
     <t>SRP047476</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23696641</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>SRP056647</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
   </si>
   <si>
+    <t>Castaneda et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP030014</t>
+  </si>
+  <si>
     <t>Calviello et al. (2015)</t>
   </si>
   <si>
+    <t>SRP030014</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25063675</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063852</t>
   </si>
   <si>
+    <t>testes</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26052047</t>
+  </si>
+  <si>
     <t>SRP063852</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26657557</t>
   </si>
   <si>
-    <t>Lareau et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP043036</t>
-  </si>
-  <si>
-    <t>SRP043036</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/24842990</t>
-  </si>
-  <si>
-    <t>Neutrophils from bone marrow</t>
-  </si>
-  <si>
-    <t>Sen et al. (2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055707 </t>
-  </si>
-  <si>
-    <t>SRP055707</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26122911</t>
-  </si>
-  <si>
-    <t>Nedialkova et al. (2015)</t>
-  </si>
-  <si>
-    <t>Ingolia et al. (2011)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
-  </si>
-  <si>
-    <t>SRP056647</t>
-  </si>
-  <si>
-    <t>SRP007567</t>
-  </si>
-  <si>
-    <t>Downloaded</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/22056041</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>Thoreen et al. (2012)</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26052047</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP011987</t>
-  </si>
-  <si>
-    <t>SRP011987</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/22552098</t>
-  </si>
-  <si>
-    <t>embryonic fibroblast</t>
-  </si>
-  <si>
-    <t>Hurt et al. (2013)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP016625</t>
-  </si>
-  <si>
-    <t>SRP016625</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/23766421</t>
-  </si>
-  <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>Howard et al. (2013)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP021058</t>
-  </si>
-  <si>
-    <t>SRP021058</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/23696641</t>
-  </si>
-  <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>Castaneda et al. (2014)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP030014</t>
-  </si>
-  <si>
-    <t>SRP030014</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25063675</t>
-  </si>
-  <si>
-    <t>testes</t>
+    <t>Shalgi et al. (2013)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP017942</t>
+  </si>
+  <si>
+    <t>SRP017942</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23290915</t>
   </si>
   <si>
     <t>normal/tumor brain</t>
   </si>
   <si>
+    <t>3T3</t>
+  </si>
+  <si>
     <t>Reid et al. (2014)</t>
   </si>
   <si>
@@ -550,225 +565,240 @@
     <t>SRP045501</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25263593</t>
+  </si>
+  <si>
+    <t>3T3/HEK293</t>
+  </si>
+  <si>
+    <t>Janich et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056576</t>
+  </si>
+  <si>
+    <t>SRP056576</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26486724</t>
+  </si>
+  <si>
+    <t>Reid et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP059390</t>
+  </si>
+  <si>
+    <t>SRP059390</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27161320</t>
+  </si>
+  <si>
+    <t>Cho et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062407</t>
+  </si>
+  <si>
+    <t>SRP062407</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26430118</t>
+  </si>
+  <si>
+    <t>Hippocampal tissue</t>
+  </si>
+  <si>
+    <t>Blanco et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062409</t>
+  </si>
+  <si>
+    <t>SRP062409</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27306184</t>
+  </si>
+  <si>
+    <t>skin squamous tumours</t>
+  </si>
+  <si>
+    <t>Neri et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063525</t>
+  </si>
+  <si>
+    <t>SRP063525</t>
+  </si>
+  <si>
+    <t>You et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064129</t>
+  </si>
+  <si>
+    <t>SRP064129</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26443847</t>
+  </si>
+  <si>
+    <t>Atger et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064304</t>
+  </si>
+  <si>
+    <t>SRP064304</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26554015</t>
+  </si>
+  <si>
+    <t>Fields et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064972</t>
+  </si>
+  <si>
+    <t>SRP064972</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26638175</t>
+  </si>
+  <si>
+    <t>Bone marrow-derived dendritic cells</t>
+  </si>
+  <si>
+    <t>Laguesse et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP065804</t>
+  </si>
+  <si>
+    <t>SRP065804</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26651292</t>
+  </si>
+  <si>
+    <t>E14.5 forebrain</t>
+  </si>
+  <si>
+    <t>Hornstein et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP070655</t>
+  </si>
+  <si>
+    <t>SRP070655</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27380875</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>CasteloSzekely et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP074765</t>
+  </si>
+  <si>
+    <t>SRP074765</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28622766</t>
+  </si>
+  <si>
+    <t>Gerashchenko et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076093</t>
+  </si>
+  <si>
+    <t>SRP076093</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27638886</t>
+  </si>
+  <si>
+    <t>Sendoel et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076538</t>
+  </si>
+  <si>
+    <t>SRP076538</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28077873</t>
+  </si>
+  <si>
+    <t>back skin</t>
+  </si>
+  <si>
+    <t>AlvarezDominguez  et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP077522</t>
+  </si>
+  <si>
+    <t>SRP077522</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27899360</t>
+  </si>
+  <si>
+    <t>E14.5 mouse fetal livers</t>
+  </si>
+  <si>
+    <t>Fradejas-Villar et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP078005</t>
+  </si>
+  <si>
+    <t>SRP078005</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27956496</t>
+  </si>
+  <si>
+    <t>Reid et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP091987</t>
+  </si>
+  <si>
+    <t>SRP091987</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28720757</t>
+  </si>
+  <si>
+    <t>fat tissues</t>
+  </si>
+  <si>
     <t>Mohammad et al. (2016)</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25263593</t>
-  </si>
-  <si>
-    <t>3T3/HEK293</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
   </si>
   <si>
     <t>SRP063562</t>
   </si>
   <si>
-    <t>Janich et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056576</t>
-  </si>
-  <si>
-    <t>SRP056576</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26486724</t>
-  </si>
-  <si>
-    <t>Reid et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP059390</t>
-  </si>
-  <si>
-    <t>SRP059390</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27161320</t>
-  </si>
-  <si>
-    <t>Cho et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062407</t>
-  </si>
-  <si>
-    <t>SRP062407</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26430118</t>
-  </si>
-  <si>
-    <t>Hippocampal tissue</t>
-  </si>
-  <si>
-    <t>Blanco et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062409</t>
-  </si>
-  <si>
-    <t>SRP062409</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27306184</t>
-  </si>
-  <si>
-    <t>skin squamous tumours</t>
-  </si>
-  <si>
-    <t>Neri et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063525</t>
-  </si>
-  <si>
-    <t>SRP063525</t>
-  </si>
-  <si>
-    <t>You et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064129</t>
-  </si>
-  <si>
-    <t>SRP064129</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26443847</t>
-  </si>
-  <si>
-    <t>Atger et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064304</t>
-  </si>
-  <si>
-    <t>SRP064304</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26554015</t>
-  </si>
-  <si>
-    <t>Fields et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP064972</t>
-  </si>
-  <si>
-    <t>SRP064972</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26638175</t>
-  </si>
-  <si>
-    <t>Bone marrow-derived dendritic cells</t>
-  </si>
-  <si>
-    <t>Laguesse et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP065804</t>
-  </si>
-  <si>
-    <t>SRP065804</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26651292</t>
-  </si>
-  <si>
-    <t>E14.5 forebrain</t>
-  </si>
-  <si>
-    <t>Hornstein et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP070655</t>
-  </si>
-  <si>
-    <t>SRP070655</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27380875</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
-    <t>CasteloSzekely et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP074765</t>
-  </si>
-  <si>
-    <t>SRP074765</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/28622766</t>
-  </si>
-  <si>
-    <t>Gerashchenko et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076093</t>
-  </si>
-  <si>
-    <t>SRP076093</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27638886</t>
-  </si>
-  <si>
-    <t>Sendoel et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076538</t>
-  </si>
-  <si>
-    <t>SRP076538</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/28077873</t>
-  </si>
-  <si>
-    <t>back skin</t>
-  </si>
-  <si>
-    <t>AlvarezDominguez  et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP077522</t>
-  </si>
-  <si>
-    <t>SRP077522</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27899360</t>
-  </si>
-  <si>
-    <t>E14.5 mouse fetal livers</t>
-  </si>
-  <si>
-    <t>Fradejas-Villar et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP078005</t>
-  </si>
-  <si>
-    <t>SRP078005</t>
-  </si>
-  <si>
     <t>Aspden et al (2014)</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/27956496</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045475</t>
   </si>
   <si>
@@ -778,28 +808,13 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25144939</t>
   </si>
   <si>
-    <t>Reid et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP091987</t>
-  </si>
-  <si>
     <t>Chen et al (2017)</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP108999</t>
   </si>
   <si>
-    <t>SRP091987</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/28720757</t>
-  </si>
-  <si>
     <t>SRP108999</t>
-  </si>
-  <si>
-    <t>fat tissues</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/29194454</t>
@@ -935,6 +950,49 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF642A8F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF00948F"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -947,8 +1005,34 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Sans-serif"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -961,13 +1045,18 @@
       <name val="Lora"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
-      <color rgb="FF00948F"/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF642A8F"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -975,80 +1064,6 @@
       <sz val="9.0"/>
       <color rgb="FF00948F"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF777777"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF00948F"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -1098,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1183,101 +1198,104 @@
     <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -1366,7 +1384,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7">
         <v>2010.0</v>
@@ -1389,7 +1407,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7">
         <v>2010.0</v>
@@ -1778,30 +1796,30 @@
         <v>100</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="28" t="s">
-        <v>102</v>
+      <c r="G21" s="36" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B22" s="16">
         <v>2015.0</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>104</v>
+      <c r="C22" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>15</v>
@@ -1809,49 +1827,49 @@
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B23" s="26">
         <v>2018.0</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="30" t="s">
-        <v>110</v>
+      <c r="F23" s="40" t="s">
+        <v>130</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B24" s="13">
         <v>2017.0</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="4">
         <v>2018.0</v>
@@ -1871,19 +1889,19 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="B26" s="4">
         <v>2014.0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>15</v>
@@ -1891,22 +1909,42 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="B27" s="4">
         <v>2015.0</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="49" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2013.0</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1964,8 +2002,10 @@
     <hyperlink r:id="rId51" ref="F26"/>
     <hyperlink r:id="rId52" ref="C27"/>
     <hyperlink r:id="rId53" ref="F27"/>
+    <hyperlink r:id="rId54" ref="C28"/>
+    <hyperlink r:id="rId55" ref="F28"/>
   </hyperlinks>
-  <drawing r:id="rId54"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -2007,7 +2047,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>2018.0</v>
@@ -2073,7 +2113,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>2018.0</v>
@@ -2143,24 +2183,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="34" t="s">
-        <v>8</v>
+      <c r="A2" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>2010.0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>129</v>
+      <c r="G2" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="I2" t="str">
         <f>linkURL(E3)</f>
@@ -2168,49 +2208,49 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
-        <v>135</v>
+      <c r="A3" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="B3" s="3">
         <v>2011.0</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>137</v>
+      <c r="C3" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>141</v>
+        <v>118</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="46" t="s">
-        <v>143</v>
+      <c r="A4" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="B4" s="1">
         <v>2012.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>147</v>
+        <v>118</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="I4" t="str">
         <f>linkURL(F4)</f>
@@ -2218,90 +2258,90 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>2012.0</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="34"/>
+        <v>118</v>
+      </c>
+      <c r="F5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="46" t="s">
-        <v>149</v>
+      <c r="A6" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="B6" s="1">
         <v>2013.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="38" t="s">
-        <v>152</v>
+        <v>140</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="32" t="s">
+        <v>142</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="46" t="s">
-        <v>154</v>
+      <c r="A7" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="B7" s="1">
         <v>2013.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="38" t="s">
-        <v>157</v>
+        <v>148</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="46" t="s">
-        <v>159</v>
+      <c r="A8" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="B8" s="1">
         <v>2014.0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="39" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="1">
@@ -2310,452 +2350,452 @@
       <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="50" t="s">
         <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="46" t="s">
-        <v>166</v>
+      <c r="A10" s="39" t="s">
+        <v>171</v>
       </c>
       <c r="B10" s="1">
         <v>2014.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>169</v>
+        <v>118</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="s">
-        <v>170</v>
+      <c r="A11" s="39" t="s">
+        <v>175</v>
       </c>
       <c r="B11" s="1">
         <v>2014.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>173</v>
+        <v>118</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="46" t="s">
-        <v>174</v>
+      <c r="A12" s="39" t="s">
+        <v>179</v>
       </c>
       <c r="B12" s="1">
         <v>2014.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="38" t="s">
-        <v>178</v>
+      <c r="F12" s="32" t="s">
+        <v>182</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="39" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="1">
         <v>2014.0</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="46" t="s">
-        <v>182</v>
+      <c r="A14" s="39" t="s">
+        <v>184</v>
       </c>
       <c r="B14" s="1">
         <v>2015.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>186</v>
+        <v>118</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>187</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>187</v>
+      <c r="A15" s="28" t="s">
+        <v>188</v>
       </c>
       <c r="B15" s="3">
         <v>2016.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>190</v>
+        <v>118</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="46" t="s">
-        <v>191</v>
+      <c r="A16" s="39" t="s">
+        <v>192</v>
       </c>
       <c r="B16" s="1">
         <v>2015.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="55" t="s">
+      <c r="F16" s="32" t="s">
         <v>195</v>
       </c>
+      <c r="G16" s="53" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="46" t="s">
-        <v>196</v>
+      <c r="A17" s="39" t="s">
+        <v>197</v>
       </c>
       <c r="B17" s="1">
         <v>2016.0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>200</v>
       </c>
+      <c r="G17" s="54" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="34" t="s">
-        <v>201</v>
+      <c r="A18" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="B18" s="3">
         <v>2017.0</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>202</v>
+      <c r="C18" s="30" t="s">
+        <v>203</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="34"/>
+        <v>118</v>
+      </c>
+      <c r="F18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="46" t="s">
-        <v>204</v>
+      <c r="A19" s="39" t="s">
+        <v>205</v>
       </c>
       <c r="B19" s="1">
         <v>2015.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>207</v>
+        <v>118</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>208</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="46" t="s">
-        <v>208</v>
+      <c r="A20" s="39" t="s">
+        <v>209</v>
       </c>
       <c r="B20" s="1">
         <v>2015.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="57" t="s">
         <v>158</v>
       </c>
+      <c r="F20" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="46" t="s">
-        <v>212</v>
+      <c r="A21" s="39" t="s">
+        <v>213</v>
       </c>
       <c r="B21" s="1">
         <v>2015.0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" s="56" t="s">
+      <c r="F21" s="32" t="s">
         <v>216</v>
       </c>
+      <c r="G21" s="54" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="46" t="s">
-        <v>217</v>
+      <c r="A22" s="39" t="s">
+        <v>218</v>
       </c>
       <c r="B22" s="1">
         <v>2015.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>220</v>
+        <v>118</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>221</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="46" t="s">
-        <v>222</v>
+      <c r="A23" s="39" t="s">
+        <v>223</v>
       </c>
       <c r="B23" s="1">
         <v>2016.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="38" t="s">
         <v>225</v>
       </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="32" t="s">
+        <v>226</v>
+      </c>
       <c r="G23" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="46" t="s">
-        <v>227</v>
+      <c r="A24" s="39" t="s">
+        <v>228</v>
       </c>
       <c r="B24" s="1">
         <v>2017.0</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>228</v>
+      <c r="C24" s="37" t="s">
+        <v>229</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>230</v>
+        <v>158</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>231</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="46" t="s">
-        <v>231</v>
+      <c r="A25" s="39" t="s">
+        <v>232</v>
       </c>
       <c r="B25" s="1">
         <v>2016.0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="38" t="s">
-        <v>234</v>
+      <c r="F25" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="46" t="s">
-        <v>235</v>
+      <c r="A26" s="39" t="s">
+        <v>236</v>
       </c>
       <c r="B26" s="1">
         <v>2017.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>238</v>
+        <v>118</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>239</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="46" t="s">
-        <v>240</v>
+      <c r="A27" s="39" t="s">
+        <v>241</v>
       </c>
       <c r="B27" s="1">
         <v>2017.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="G27" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>244</v>
       </c>
+      <c r="G27" s="44" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="46" t="s">
-        <v>245</v>
+      <c r="A28" s="39" t="s">
+        <v>246</v>
       </c>
       <c r="B28" s="1">
         <v>2016.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="G28" s="59" t="s">
-        <v>158</v>
+      <c r="G28" s="56" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="46" t="s">
-        <v>253</v>
+      <c r="A29" s="39" t="s">
+        <v>250</v>
       </c>
       <c r="B29" s="1">
         <v>2017.0</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2860,54 +2900,54 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="35">
+      <c r="A2" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="29">
         <v>2014.0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>128</v>
+        <v>104</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B3" s="4">
         <v>2015.0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="42">
+      <c r="A4" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="41">
         <v>2015.0</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>144</v>
+      <c r="C4" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2965,20 +3005,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="51">
+      <c r="A2" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="57">
         <v>2016.0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>185</v>
+        <v>256</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3032,73 +3072,73 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="58">
+      <c r="A2" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="60">
         <v>2014.0</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="39" t="s">
-        <v>252</v>
+      <c r="C2" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="33" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B3" s="4">
         <v>2017.0</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="60" t="s">
-        <v>261</v>
+      <c r="C3" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B4" s="4">
         <v>2014.0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>265</v>
+        <v>269</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B5" s="4">
         <v>2013.0</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>269</v>
+      <c r="C5" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/datasets/re-ribo-datasets.xlsx
+++ b/data/datasets/re-ribo-datasets.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="285">
   <si>
     <t>Publication</t>
   </si>
@@ -43,12 +43,12 @@
     <t>Adapter provided?</t>
   </si>
   <si>
+    <t>Guo et al. (2010)</t>
+  </si>
+  <si>
     <t>Wang et al. (2018)</t>
   </si>
   <si>
-    <t>Guo et al. (2010)</t>
-  </si>
-  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP062129</t>
   </si>
   <si>
@@ -322,13 +322,37 @@
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP049168</t>
   </si>
   <si>
+    <t>SRP049168</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>Cenik et al. (2015)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055009</t>
+  </si>
+  <si>
+    <t>SRP055009</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26297486</t>
+  </si>
+  <si>
     <t>Lareau et al. (2014)</t>
   </si>
   <si>
-    <t>SRP049168</t>
-  </si>
-  <si>
-    <t>kidney</t>
+    <t>Ulirsch et al. (2018)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP092068</t>
+  </si>
+  <si>
+    <t>SRP092068</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29551269</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP043036</t>
@@ -337,12 +361,51 @@
     <t>SRP043036</t>
   </si>
   <si>
+    <t>CD 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blair et al. (2017)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP109126</t>
+  </si>
+  <si>
+    <t>SRP109126</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29141229</t>
+  </si>
+  <si>
+    <t>ESC/NPC</t>
+  </si>
+  <si>
+    <t>Battle et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
+  </si>
+  <si>
+    <t>SRP047476</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/24842990</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
+  </si>
+  <si>
+    <t>Calviello et al. (2015)</t>
+  </si>
+  <si>
     <t>Neutrophils from bone marrow</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063852</t>
+  </si>
+  <si>
+    <t>SRP063852</t>
+  </si>
+  <si>
     <t>Sen et al. (2015)</t>
   </si>
   <si>
@@ -352,24 +415,18 @@
     <t>SRP055707</t>
   </si>
   <si>
+    <t>Ingolia et al. (2011)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/26122911</t>
   </si>
   <si>
     <t>Nedialkova et al. (2015)</t>
   </si>
   <si>
-    <t>Ingolia et al. (2011)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP007567</t>
-  </si>
-  <si>
-    <t>Cenik et al. (2015)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP055009</t>
-  </si>
-  <si>
     <t>SRP007567</t>
   </si>
   <si>
@@ -385,52 +442,22 @@
     <t>Thoreen et al. (2012)</t>
   </si>
   <si>
-    <t>SRP055009</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26297486</t>
-  </si>
-  <si>
-    <t>Ulirsch et al. (2018)</t>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26657557</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP011987</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP092068</t>
-  </si>
-  <si>
     <t>SRP011987</t>
   </si>
   <si>
-    <t>SRP092068</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/22552098</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29551269</t>
-  </si>
-  <si>
     <t>embryonic fibroblast</t>
   </si>
   <si>
-    <t>CD 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blair et al. (2017)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP109126</t>
-  </si>
-  <si>
-    <t>SRP109126</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29141229</t>
-  </si>
-  <si>
-    <t>ESC/NPC</t>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
   </si>
   <si>
     <t>Hurt et al. (2013)</t>
@@ -442,31 +469,40 @@
     <t>SRP016625</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP056647</t>
+    <t>Shalgi et al. (2013)</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/23766421</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP017942</t>
+  </si>
+  <si>
     <t>ESC</t>
   </si>
   <si>
+    <t>SRP056647</t>
+  </si>
+  <si>
+    <t>SRP017942</t>
+  </si>
+  <si>
     <t>Howard et al. (2013)</t>
   </si>
   <si>
-    <t>Battle et al. (2014)</t>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23290915</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP021058</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP047476</t>
-  </si>
-  <si>
     <t>SRP021058</t>
   </si>
   <si>
-    <t>SRP047476</t>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26052047</t>
+  </si>
+  <si>
+    <t>3T3</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/23696641</t>
@@ -475,19 +511,13 @@
     <t>liver</t>
   </si>
   <si>
-    <t>SRP056647</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/25657249</t>
-  </si>
-  <si>
     <t>Castaneda et al. (2014)</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP030014</t>
   </si>
   <si>
-    <t>Calviello et al. (2015)</t>
+    <t>Lintner et al. (2017)</t>
   </si>
   <si>
     <t>SRP030014</t>
@@ -499,39 +529,39 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/25063675</t>
   </si>
   <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063852</t>
-  </si>
-  <si>
     <t>testes</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26052047</t>
-  </si>
-  <si>
-    <t>SRP063852</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26657557</t>
-  </si>
-  <si>
-    <t>Shalgi et al. (2013)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP017942</t>
-  </si>
-  <si>
-    <t>SRP017942</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/23290915</t>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP098789</t>
+  </si>
+  <si>
+    <t>SRP098789</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28323820</t>
+  </si>
+  <si>
+    <t>Huh7</t>
+  </si>
+  <si>
+    <t>Diaz-Munoz et al. (2014)</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP048708</t>
+  </si>
+  <si>
+    <t>SRP048708</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25706746</t>
+  </si>
+  <si>
+    <t>B cell</t>
   </si>
   <si>
     <t>normal/tumor brain</t>
   </si>
   <si>
-    <t>3T3</t>
-  </si>
-  <si>
     <t>Reid et al. (2014)</t>
   </si>
   <si>
@@ -724,12 +754,21 @@
     <t>SRP076093</t>
   </si>
   <si>
+    <t>Mohammad et al. (2016)</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/27638886</t>
   </si>
   <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
+  </si>
+  <si>
     <t>Sendoel et al. (2017)</t>
   </si>
   <si>
+    <t>SRP063562</t>
+  </si>
+  <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP076538</t>
   </si>
   <si>
@@ -757,6 +796,9 @@
     <t>E14.5 mouse fetal livers</t>
   </si>
   <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
+  </si>
+  <si>
     <t>Fradejas-Villar et al. (2016)</t>
   </si>
   <si>
@@ -781,22 +823,10 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/28720757</t>
   </si>
   <si>
+    <t>Aspden et al (2014)</t>
+  </si>
+  <si>
     <t>fat tissues</t>
-  </si>
-  <si>
-    <t>Mohammad et al. (2016)</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP063562</t>
-  </si>
-  <si>
-    <t>SRP063562</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/26776510</t>
-  </si>
-  <si>
-    <t>Aspden et al (2014)</t>
   </si>
   <si>
     <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?study=SRP045475</t>
@@ -848,7 +878,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -950,9 +980,21 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF00948F"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF057279"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -993,16 +1035,13 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <u/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF057279"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <u/>
@@ -1011,6 +1050,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="13.0"/>
+      <color rgb="FF222222"/>
+      <name val="Lora"/>
+    </font>
+    <font>
       <u/>
       <sz val="9.0"/>
       <color rgb="FF0000FF"/>
@@ -1023,26 +1067,29 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Sans-serif"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF0000FF"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="13.0"/>
-      <color rgb="FF222222"/>
-      <name val="Lora"/>
     </font>
     <font>
       <u/>
@@ -1050,11 +1097,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1063,10 +1105,6 @@
       <u/>
       <sz val="9.0"/>
       <color rgb="FF00948F"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -1113,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1198,77 +1236,92 @@
     <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1276,31 +1329,25 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="45" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1384,7 +1431,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7">
         <v>2010.0</v>
@@ -1407,7 +1454,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7">
         <v>2010.0</v>
@@ -1796,30 +1843,30 @@
         <v>100</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="36" t="s">
-        <v>103</v>
+      <c r="G21" s="28" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B22" s="16">
         <v>2015.0</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>116</v>
+      <c r="C22" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>15</v>
@@ -1827,49 +1874,49 @@
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B23" s="26">
         <v>2018.0</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="40" t="s">
-        <v>130</v>
+      <c r="F23" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B24" s="13">
         <v>2017.0</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4">
         <v>2018.0</v>
@@ -1889,19 +1936,19 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4">
         <v>2014.0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>15</v>
@@ -1909,42 +1956,82 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B27" s="4">
         <v>2015.0</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B28" s="4">
         <v>2013.0</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>170</v>
+      <c r="B29" s="4">
+        <v>2017.0</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2014.0</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2004,8 +2091,12 @@
     <hyperlink r:id="rId53" ref="F27"/>
     <hyperlink r:id="rId54" ref="C28"/>
     <hyperlink r:id="rId55" ref="F28"/>
+    <hyperlink r:id="rId56" ref="C29"/>
+    <hyperlink r:id="rId57" ref="F29"/>
+    <hyperlink r:id="rId58" ref="C30"/>
+    <hyperlink r:id="rId59" ref="F30"/>
   </hyperlinks>
-  <drawing r:id="rId56"/>
+  <drawing r:id="rId60"/>
 </worksheet>
 </file>
 
@@ -2047,7 +2138,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>2018.0</v>
@@ -2113,7 +2204,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>2018.0</v>
@@ -2183,24 +2274,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="s">
-        <v>9</v>
+      <c r="A2" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>2010.0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>107</v>
+      <c r="G2" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="I2" t="str">
         <f>linkURL(E3)</f>
@@ -2208,49 +2299,49 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="s">
-        <v>113</v>
+      <c r="A3" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="B3" s="3">
         <v>2011.0</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>114</v>
+      <c r="C3" s="39" t="s">
+        <v>133</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>119</v>
+        <v>137</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>138</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="39" t="s">
-        <v>121</v>
+      <c r="A4" s="41" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="1">
         <v>2012.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I4" t="str">
         <f>linkURL(F4)</f>
@@ -2258,90 +2349,90 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>2012.0</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="28"/>
+        <v>137</v>
+      </c>
+      <c r="F5" s="30"/>
     </row>
     <row r="6">
-      <c r="A6" s="39" t="s">
-        <v>138</v>
+      <c r="A6" s="41" t="s">
+        <v>147</v>
       </c>
       <c r="B6" s="1">
         <v>2013.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="32" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="39" t="s">
-        <v>144</v>
+      <c r="A7" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="B7" s="1">
         <v>2013.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="32" t="s">
-        <v>150</v>
+        <v>159</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="39" t="s">
-        <v>154</v>
+      <c r="A8" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="B8" s="1">
         <v>2014.0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="1">
@@ -2350,452 +2441,472 @@
       <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="50" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="55" t="s">
         <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="39" t="s">
-        <v>171</v>
+      <c r="A10" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="B10" s="1">
         <v>2014.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>174</v>
+        <v>137</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="39" t="s">
-        <v>175</v>
+      <c r="A11" s="41" t="s">
+        <v>185</v>
       </c>
       <c r="B11" s="1">
         <v>2014.0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>178</v>
+        <v>137</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="39" t="s">
-        <v>179</v>
+      <c r="A12" s="41" t="s">
+        <v>189</v>
       </c>
       <c r="B12" s="1">
         <v>2014.0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>183</v>
+      <c r="F12" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="1">
         <v>2014.0</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="33" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="39" t="s">
-        <v>184</v>
+      <c r="A14" s="41" t="s">
+        <v>194</v>
       </c>
       <c r="B14" s="1">
         <v>2015.0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>187</v>
+        <v>137</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="s">
-        <v>188</v>
+      <c r="A15" s="30" t="s">
+        <v>198</v>
       </c>
       <c r="B15" s="3">
         <v>2016.0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>191</v>
+        <v>137</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="39" t="s">
-        <v>192</v>
+      <c r="A16" s="41" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="1">
         <v>2015.0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>196</v>
+      <c r="F16" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="39" t="s">
-        <v>197</v>
+      <c r="A17" s="41" t="s">
+        <v>207</v>
       </c>
       <c r="B17" s="1">
         <v>2016.0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>201</v>
+        <v>168</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="28" t="s">
-        <v>202</v>
+      <c r="A18" s="30" t="s">
+        <v>212</v>
       </c>
       <c r="B18" s="3">
         <v>2017.0</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>203</v>
+      <c r="C18" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="28"/>
+        <v>137</v>
+      </c>
+      <c r="F18" s="30"/>
     </row>
     <row r="19">
-      <c r="A19" s="39" t="s">
-        <v>205</v>
+      <c r="A19" s="41" t="s">
+        <v>215</v>
       </c>
       <c r="B19" s="1">
         <v>2015.0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>208</v>
+        <v>137</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>218</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="39" t="s">
-        <v>209</v>
+      <c r="A20" s="41" t="s">
+        <v>219</v>
       </c>
       <c r="B20" s="1">
         <v>2015.0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>151</v>
+        <v>168</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="39" t="s">
-        <v>213</v>
+      <c r="A21" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="B21" s="1">
         <v>2015.0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>217</v>
+      <c r="F21" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="39" t="s">
-        <v>218</v>
+      <c r="A22" s="41" t="s">
+        <v>228</v>
       </c>
       <c r="B22" s="1">
         <v>2015.0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>221</v>
+        <v>137</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>231</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="39" t="s">
-        <v>223</v>
+      <c r="A23" s="41" t="s">
+        <v>233</v>
       </c>
       <c r="B23" s="1">
         <v>2016.0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="32" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="39" t="s">
-        <v>228</v>
+      <c r="A24" s="41" t="s">
+        <v>238</v>
       </c>
       <c r="B24" s="1">
         <v>2017.0</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>229</v>
+      <c r="C24" s="39" t="s">
+        <v>239</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>231</v>
+        <v>168</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>241</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="39" t="s">
-        <v>232</v>
+      <c r="A25" s="41" t="s">
+        <v>242</v>
       </c>
       <c r="B25" s="1">
         <v>2016.0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="32" t="s">
-        <v>235</v>
+      <c r="F25" s="35" t="s">
+        <v>246</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="39" t="s">
-        <v>236</v>
+      <c r="A26" s="41" t="s">
+        <v>248</v>
       </c>
       <c r="B26" s="1">
         <v>2017.0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>239</v>
+        <v>137</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>252</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="39" t="s">
-        <v>241</v>
+      <c r="A27" s="41" t="s">
+        <v>254</v>
       </c>
       <c r="B27" s="1">
         <v>2017.0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>245</v>
+        <v>168</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="39" t="s">
-        <v>246</v>
+      <c r="A28" s="41" t="s">
+        <v>260</v>
       </c>
       <c r="B28" s="1">
         <v>2016.0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G28" s="56" t="s">
-        <v>151</v>
+      <c r="F28" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="39" t="s">
-        <v>250</v>
+      <c r="A29" s="41" t="s">
+        <v>264</v>
       </c>
       <c r="B29" s="1">
         <v>2017.0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>253</v>
+        <v>137</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>267</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>254</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2013.0</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2853,8 +2964,10 @@
     <hyperlink r:id="rId51" ref="F28"/>
     <hyperlink r:id="rId52" ref="C29"/>
     <hyperlink r:id="rId53" ref="F29"/>
+    <hyperlink r:id="rId54" ref="C30"/>
+    <hyperlink r:id="rId55" ref="F30"/>
   </hyperlinks>
-  <drawing r:id="rId54"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -2900,54 +3013,54 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="29">
+      <c r="A2" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="31">
         <v>2014.0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4">
         <v>2015.0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>111</v>
+        <v>130</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="41">
+      <c r="A4" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="43">
         <v>2015.0</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>162</v>
+      <c r="C4" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3005,20 +3118,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="57" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="57">
+      <c r="A2" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="48">
         <v>2016.0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>258</v>
+        <v>247</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3072,73 +3185,73 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="60" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="60">
+      <c r="A2" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="54">
         <v>2014.0</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="33" t="s">
-        <v>262</v>
+      <c r="C2" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="36" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B3" s="4">
         <v>2017.0</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61" t="s">
-        <v>266</v>
+      <c r="C3" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="64" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B4" s="4">
         <v>2014.0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>270</v>
+        <v>279</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B5" s="4">
         <v>2013.0</v>
       </c>
-      <c r="C5" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>274</v>
+      <c r="C5" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
